--- a/富安资产问题跟踪清单.xlsx
+++ b/富安资产问题跟踪清单.xlsx
@@ -5,23 +5,26 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaku9\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\富安项目系统\07.系统运维\问题清单\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="19440" windowHeight="7125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="19440" windowHeight="7095" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$46</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="203">
   <si>
     <t>序号</t>
   </si>
@@ -100,10 +103,6 @@
   </si>
   <si>
     <t>项目管理-收购项目管理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>风险类型与业务类型需要讨论确认</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -153,11 +152,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>1、请将项目组长放到表的上方
-2、增加组员时有复选框，但是不能多选，希望优化</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>低</t>
   </si>
   <si>
@@ -279,9 +273,6 @@
     <t>律所/评估机构选聘流程</t>
   </si>
   <si>
-    <t>如何通过一个流程完成多家机构的选聘？</t>
-  </si>
-  <si>
     <t>胡博</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -304,15 +295,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>“省份”选择中，请把沈阳、重庆、江苏、广东放在前面</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>干系人管理、选择器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>“角色”包含哪些类型，对应了哪些逻辑关系？请提供对照表</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -404,10 +387,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>今晚连同升级一起验证解决</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>李伟、王晓雯</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -436,10 +415,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>项目阶段、项目状态、驳回状态分别与流程是如何对应的？请提供对照表我们先了解一下再提需求。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>通用</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -497,14 +472,6 @@
   </si>
   <si>
     <t>袁良和</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>李伟</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>李伟</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -515,6 +482,147 @@
   <si>
     <t>1、通过12.7晚上的升级可以解决为空的问题；
 2、录入银行账户的时候没有部门，所以在查询条件里面去掉查询部门，请王旭录入QC；</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>请李伟录入TS需求</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>请王旭录QC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>待确认实现逻辑
+请李伟录入TS需求</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认需求逻辑和实现方案
+请李伟录入TS需求</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>已在改，预计下周升级
+已经录入需求：201712060221</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求开发提供导入数据，提供客户确认能否使用
+请李伟录入TS需求</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务场景：对于投决通过的项目，经过一段时间有可能发生方案的变更，需要需要重新发起方案、上会准备、投决审批，按照当前的系统同逻辑，后台使用同一份项目要素表，最新一次的变更会把历史流程的审批要素一同变更掉，缺少“流程快照”。
+请李伟录入TS需求</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>同徐勇确认
+请李伟录入TS需求</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>已录入需求：201712070175</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>同徐勇沟通，可以优化，请明确具体哪些地方需要调整。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>出纳节点，不应只有处理意见，还应录入“实际付款金额”，“实际付款日期”，并且可以调整“付款账户”（多条）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">如何通过一个流程完成多笔费用的支付？
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>具体要求还需要沟通，考虑提供集中划款功能。</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">委贷利息不需要项目经理认领，财务可以直接确认。无法确认的款项才需要发起到账认领流程
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>建议在到账认领管理功能页面直接提供到账确认功能，请确认？</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>请李伟录入TS需求
+bizErrorMessageFormat.properties</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐勇</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要和还款计划一起考虑整体需求的实现
+请李伟录入TS需求
+提供设计文档或者demo，然后和马琳确认。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>二期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>统一配置没有生效，已通过流程中逐个勾选实现功能
+排查生产环境在没有勾选节点的时候，邮件发送不成功的问题。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增的干系人信息一旦提交后“干系人名称”就不允许修改了，所以提交时建议弹出提示框：“请确认干系人名称是否准确，提交后将不能修改”
+提交之后，除了管理员其他角色不能修改干系人名称--1213</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨曦</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款账户字段现在已经配置处理，其他字段无
+请李伟录入TS需求
+多账户的问题1月27日提供版本</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证说明</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>已通过模板配置去除</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资项目问题1依然存在，且组长和比例顺序有误</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -546,124 +654,174 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>请李伟录入TS需求</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>付款账户字段现在已经配置处理，其他字段无
-请李伟录入TS需求</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>请王旭录QC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>涉及到现场配置的可以修改，还有一部分需要开发修改
-请李伟录入TS需求</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>待确认实现逻辑
-请李伟录入TS需求</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认需求逻辑和实现方案
-请李伟录入TS需求</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>已在改，预计下周升级
-已经录入需求：201712060221</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>要求开发提供导入数据，提供客户确认能否使用
-请李伟录入TS需求</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务场景：对于投决通过的项目，经过一段时间有可能发生方案的变更，需要需要重新发起方案、上会准备、投决审批，按照当前的系统同逻辑，后台使用同一份项目要素表，最新一次的变更会把历史流程的审批要素一同变更掉，缺少“流程快照”。
-请李伟录入TS需求</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>同徐勇确认
-请李伟录入TS需求</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>已录入需求：201712070175</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>同徐勇沟通，可以优化，请明确具体哪些地方需要调整。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>出纳节点，不应只有处理意见，还应录入“实际付款金额”，“实际付款日期”，并且可以调整“付款账户”（多条）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>律所选聘页面增加字段：“代理方式”，下拉列表可选择：：一般代理、一般风险代理、全风险代理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">如何通过一个流程完成多笔费用的支付？
-</t>
-    </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF0000FF"/>
+        <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>具体要求还需要沟通，考虑提供集中划款功能。</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">委贷利息不需要项目经理认领，财务可以直接确认。无法确认的款项才需要发起到账认领流程
-</t>
+      <t>*</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF0000FF"/>
+        <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>建议在到账认领管理功能页面直接提供到账确认功能，请确认？</t>
+      <t>没加上</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <t>项目管理-投资项目管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-立项流程</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘学</t>
+  </si>
+  <si>
+    <t>李伟</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>为页面导航栏，配置流程附件后则可显示具体内容了</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>待生产环境确认</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>连同升级一起验证解决</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>保证合同为二期内容，可延后实现</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目管理-文档管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>保证合同和抵质押物管理为二期内容，可延后实现</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目阶段、项目状态、驳回状态分别与流程是如何对应的？请提供对照表我们先了解一下再提需求。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何通过一个流程完成多家机构的选聘？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>“省份”选择中，请把沈阳、重庆、江苏、广东放在前面</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>“角色”包含哪些类型，对应了哪些逻辑关系？请提供对照表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>付费类型中，“其他”放在最后</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为优化需求:在项目列表去掉驳回状态字段</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>“所处行业”等下拉列表选项比较多的，建议都优化为录入可以模糊查询的方式</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>请李伟录入TS需求
-bizErrorMessageFormat.properties</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>待生产环境确认</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐勇</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证</t>
+    <t>财务管理-付款管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资期限和预计实施日期不能填写</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁良和</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、请将项目组长放到表的上方
+2、增加组员时有复选框，但是不能多选，希望优化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险类型与业务类型需要讨论确认</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>律所选聘页面增加字段：“代理方式”，下拉列表可选择：：一般代理、一般风险代理、全风险代理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档清单能否调整？流程中上传的文档不能在此处查看？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>上会准备流程</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增提案除，“动议部门”换成“承做部门”（字段名与取值）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询结果列表中，取消“驳回状态”列</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>同陈海英沟通，作为优化需求</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁良和</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置流程变量只支持通用表单、评审表单，其他表单不支持，比如方案审查流程使用的 要素表更表单，徐勇给出方案配置上传检查的服务，但是现场测试有问题，问题反馈给徐勇了。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>标识绿色部分已经现场处理。还有一部分需要开发修改
+请李伟录入TS需求</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>去掉“动议部门”字段，增加“承做部门”字段，取值和立项里面的保持一致；</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共模板已替换，需调整内容已告之徐勇</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -679,7 +837,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>同意支持</t>
+      <t>暂不修改</t>
     </r>
     <r>
       <rPr>
@@ -713,18 +871,20 @@
         <scheme val="minor"/>
       </rPr>
       <t>）
-2、选聘方式为灰无法选择（</t>
+2、</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF0000FF"/>
+        <color rgb="FF00B050"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>同意支持，李伟配置流程参数</t>
+      <t>选聘方式为灰无法选择（同意支持，李伟配置流程参数）
+3、备选机构表不应为必填（关键要素不可调整），且“备选推荐人”应改为录入框（同意支持）
+4、“机构评审结果”一块去掉（选聘结论性意见，不建议调整）</t>
     </r>
     <r>
       <rPr>
@@ -735,19 +895,42 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>）
-3、备选机构表不应为必填（</t>
+      <t xml:space="preserve">
+5、附件清单去掉，进保留一个“其他文档”</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/3/4已配置隐藏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过“数据字典设置”完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目阶段是所处流程、项目状态是流程阶段，驳回仅限复核时用，应去掉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询结果没有超链接，无法查看详情，请在“基金名称”上增加</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于之前沟通，要求我们把内部机构录入基金中，但是里面的“管理人”、“发起人”都是从干系人中选择，导致我们要两边都录入。希望上述两个字段的查询范围增加基金</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础信息维护-干系人管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>关键要素不可调整</t>
+      <t>经营范围文本框太小只能录入6</t>
     </r>
     <r>
       <rPr>
@@ -758,129 +941,68 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>），且“备选推荐人”应改为录入框（</t>
+      <t>2个字符，应像备注一样为大框，且需增加录入字数</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>同意支持</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）
-4、“机构评审结果”一块去掉（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>选聘结论性意见，不建议调整</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）
-5、附件清单去掉，进保留一个“其他文档”</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要和还款计划一起考虑整体需求的实现
-请李伟录入TS需求
-提供设计文档或者demo，然后和马琳确认。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>二期</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>统一配置没有生效，已通过流程中逐个勾选实现功能
-排查生产环境在没有勾选节点的时候，邮件发送不成功的问题。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>流程配置可以实现控制
-确认生产环境</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增的干系人信息一旦提交后“干系人名称”就不允许修改了，所以提交时建议弹出提示框：“请确认干系人名称是否准确，提交后将不能修改”
-提交之后，除了管理员其他角色不能修改干系人名称--1213</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>二期</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否验证</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证是否通过</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增/维护干系人时，“是否启用社会信用代码”选择了是，录入了统一社会信用代码，但是保存后自动出现了“组织机构代码”：MA0U4B313 、MA0UGMJ7X等。。。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>已确认</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理-用户设置-分配权限</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>刘学</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>验证说明</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t>投资项目问题1依然存在，且组长和比例顺序有误</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>红*没加上</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>投资项目立项流程</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>投资期限和预计实施日期不能填写</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>没找到。。</t>
+    <t xml:space="preserve">测试环境，分配权限的时候，会报错
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目管理-投资项目管理-立项流程</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产环境，先保存再提交会报错</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘学</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bug</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈海英</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板配置的问题，会提供脚本修改历史数据和配置数据</t>
+  </si>
+  <si>
+    <t>生产环境，给赵姝瑶分配了项目经理权限，提交之后找不到风管副总裁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过配置解决</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目列表和项目全景图中的项目经理不是同一个人</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -888,7 +1010,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -993,22 +1115,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
       <name val="宋体"/>
       <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1063,12 +1173,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1106,21 +1216,8 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1136,11 +1233,17 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1225,55 +1328,250 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="8">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="常规 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="常规 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="检查单元格" xfId="5" builtinId="23"/>
+    <cellStyle name="常规 2 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="常规 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="常规 2 3 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="检查单元格 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
-  <dxfs count="78">
+  <dxfs count="32">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1388,7 +1686,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1404,568 +1702,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C6500"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2318,31 +2059,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O306"/>
+  <dimension ref="A1:M306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.21875" customWidth="1"/>
-    <col min="3" max="3" width="32.5546875" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.88671875" style="21" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.21875" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.21875" customWidth="1"/>
     <col min="10" max="10" width="9.44140625" customWidth="1"/>
     <col min="11" max="11" width="22.33203125" customWidth="1"/>
-    <col min="12" max="13" width="8.88671875" style="38"/>
-    <col min="14" max="14" width="8.88671875" style="9"/>
-    <col min="15" max="15" width="8.88671875" style="39"/>
+    <col min="12" max="12" width="13" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="22" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="52" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2356,40 +2097,32 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H1" s="24" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="J1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="M1" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="N1" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="O1" s="40" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L1" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="M1" s="22"/>
+    </row>
+    <row r="2" spans="1:13" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2403,7 +2136,7 @@
         <v>15</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>6</v>
@@ -2412,28 +2145,20 @@
         <v>43062</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I2" s="12">
         <v>43081</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="K2" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="L2" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="M2" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="24" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="L2" s="9"/>
+    </row>
+    <row r="3" spans="1:13" ht="36" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2447,7 +2172,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>6</v>
@@ -2456,86 +2181,74 @@
         <v>43062</v>
       </c>
       <c r="H3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3" s="12">
+        <v>43077</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="I3" s="12">
-        <v>43081</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="K3" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="L3" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="M3" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="36" x14ac:dyDescent="0.3">
+      <c r="K3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="36" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>35</v>
+        <v>23</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>165</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G4" s="12">
         <v>43062</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I4" s="12">
         <v>43082</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="K4" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="L4" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="M4" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="O4" s="39" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="60" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="60" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>6</v>
@@ -2544,196 +2257,173 @@
         <v>43062</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I5" s="12">
         <v>43082</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="K5" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="L5" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="M5" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+      <c r="K5" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" spans="1:13" ht="36" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G6" s="12">
         <v>43063</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I6" s="12">
-        <v>43081</v>
+        <v>43077</v>
       </c>
       <c r="J6" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" s="31"/>
+      <c r="L6" s="35" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="54" customFormat="1" ht="36" x14ac:dyDescent="0.3">
+      <c r="A7" s="39">
+        <v>6</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="44">
+        <v>43063</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" s="44">
+        <v>43083</v>
+      </c>
+      <c r="J7" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="K6" s="32"/>
-      <c r="L6" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="M6" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="K7" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="L7" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="M7" s="45"/>
+    </row>
+    <row r="8" spans="1:13" s="54" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A8" s="39">
+        <v>7</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="10" t="s">
+      <c r="G8" s="44">
+        <v>43063</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8" s="44">
+        <v>43082</v>
+      </c>
+      <c r="J8" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="L8" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="M8" s="45"/>
+    </row>
+    <row r="9" spans="1:13" s="54" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A9" s="39">
+        <v>8</v>
+      </c>
+      <c r="B9" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="C9" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="12">
+      <c r="E9" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="44">
         <v>43063</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="K7" s="32" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="24" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="12">
-        <v>43063</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="I8" s="12">
-        <v>43082</v>
-      </c>
-      <c r="J8" s="6" t="s">
+      <c r="H9" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" s="44">
+        <v>43083</v>
+      </c>
+      <c r="J9" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="K8" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="L8" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="M8" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="N8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="O8" s="39" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="24" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="12">
-        <v>43063</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="I9" s="12">
-        <v>43083</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="K9" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="L9" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="M9" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="N9" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K9" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="L9" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="M9" s="45"/>
+    </row>
+    <row r="10" spans="1:13" ht="24" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2741,55 +2431,49 @@
         <v>8</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G10" s="12">
         <v>43063</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="I10" s="12">
-        <v>43083</v>
+        <v>133</v>
+      </c>
+      <c r="I10" s="44">
+        <v>43082</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="K10" s="32"/>
-      <c r="L10" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="M10" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="N10" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="24" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="36" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>7</v>
@@ -2798,33 +2482,34 @@
         <v>43063</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I11" s="12">
         <v>43127</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="K11" s="33" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+      <c r="K11" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="L11" s="9"/>
+    </row>
+    <row r="12" spans="1:13" ht="36" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>7</v>
@@ -2833,45 +2518,36 @@
         <v>43065</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I12" s="12">
         <v>43082</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="K12" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="L12" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="M12" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="N12" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="O12" s="39" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="36" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="K12" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="L12" s="35" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="48" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>7</v>
@@ -2880,33 +2556,34 @@
         <v>43065</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I13" s="12">
         <v>43127</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="K13" s="33" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="K13" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="L13" s="9"/>
+    </row>
+    <row r="14" spans="1:13" ht="24" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>6</v>
@@ -2915,33 +2592,34 @@
         <v>43065</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I14" s="12">
         <v>43127</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="K14" s="31" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+      <c r="K14" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="L14" s="9"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="E15" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>7</v>
@@ -2950,31 +2628,32 @@
         <v>43067</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="K15" s="30" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="L15" s="9"/>
+    </row>
+    <row r="16" spans="1:13" ht="24" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>67</v>
+        <v>64</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>156</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>6</v>
@@ -2983,33 +2662,34 @@
         <v>43067</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I16" s="12">
         <v>43162</v>
       </c>
       <c r="J16" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K16" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="30" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+      <c r="L16" s="9"/>
+    </row>
+    <row r="17" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>6</v>
@@ -3018,33 +2698,34 @@
         <v>43067</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I17" s="12">
         <v>43096</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="K17" s="33" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="132" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+      <c r="K17" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="L17" s="9"/>
+    </row>
+    <row r="18" spans="1:12" ht="156" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>6</v>
@@ -3053,33 +2734,36 @@
         <v>43067</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="I18" s="12">
-        <v>43096</v>
+        <v>43088</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="K18" s="33" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+      <c r="K18" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="L18" s="35" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>6</v>
@@ -3088,33 +2772,36 @@
         <v>43067</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="I19" s="12">
-        <v>43096</v>
+        <v>91</v>
+      </c>
+      <c r="I19" s="38">
+        <v>43088</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="K19" s="33" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+      <c r="K19" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="L19" s="35" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="48" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>6</v>
@@ -3123,33 +2810,34 @@
         <v>43067</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="I20" s="28" t="s">
-        <v>152</v>
+        <v>86</v>
+      </c>
+      <c r="I20" s="32" t="s">
+        <v>136</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="K20" s="33" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="60" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+      <c r="K20" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="L20" s="9"/>
+    </row>
+    <row r="21" spans="1:12" ht="60" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>6</v>
@@ -3158,33 +2846,34 @@
         <v>43067</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="I21" s="28" t="s">
-        <v>152</v>
+        <v>93</v>
+      </c>
+      <c r="I21" s="32" t="s">
+        <v>136</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="K21" s="33" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+      <c r="K21" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="L21" s="9"/>
+    </row>
+    <row r="22" spans="1:12" ht="24" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>6</v>
@@ -3193,28 +2882,22 @@
         <v>43067</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="I22" s="12">
         <v>43082</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="K22" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="L22" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="M22" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="N22" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+      <c r="K22" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="L22" s="31" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -3222,13 +2905,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>7</v>
@@ -3237,33 +2920,36 @@
         <v>43070</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="I23" s="12">
         <v>43082</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="K23" s="30" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L23" s="31" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>29</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>6</v>
@@ -3272,28 +2958,22 @@
         <v>43075</v>
       </c>
       <c r="H24" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="I24" s="38">
+        <v>43077</v>
+      </c>
+      <c r="J24" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="I24" s="12">
-        <v>43081</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="K24" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="L24" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="M24" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="N24" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="48" x14ac:dyDescent="0.3">
+      <c r="K24" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="L24" s="31" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="48" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -3307,7 +2987,7 @@
         <v>15</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>6</v>
@@ -3316,28 +2996,20 @@
         <v>43075</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I25" s="12">
         <v>43076</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="K25" s="30" t="s">
-        <v>153</v>
-      </c>
-      <c r="L25" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="M25" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="N25" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L25" s="9"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -3351,7 +3023,7 @@
         <v>20</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>6</v>
@@ -3360,40 +3032,36 @@
         <v>43075</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="I26" s="12">
-        <v>43076</v>
+        <v>80</v>
+      </c>
+      <c r="I26" s="38">
+        <v>43077</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="K26" s="30"/>
-      <c r="L26" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="M26" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="N26" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="K26" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="L26" s="31" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>6</v>
@@ -3402,19 +3070,20 @@
         <v>43075</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I27" s="12">
         <v>43076</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="K27" s="30" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L27" s="9"/>
+    </row>
+    <row r="28" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -3422,13 +3091,13 @@
         <v>16</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>6</v>
@@ -3437,33 +3106,34 @@
         <v>43075</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I28" s="12">
         <v>43127</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="K28" s="33" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="108" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+      <c r="K28" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="L28" s="9"/>
+    </row>
+    <row r="29" spans="1:12" ht="108" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>7</v>
@@ -3472,33 +3142,34 @@
         <v>43075</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="I29" s="28" t="s">
-        <v>152</v>
+        <v>94</v>
+      </c>
+      <c r="I29" s="32" t="s">
+        <v>136</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="K29" s="33" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+      <c r="K29" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="L29" s="9"/>
+    </row>
+    <row r="30" spans="1:12" ht="24" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>34</v>
       </c>
       <c r="B30" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>65</v>
-      </c>
       <c r="E30" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>7</v>
@@ -3507,42 +3178,36 @@
         <v>43075</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I30" s="12">
         <v>43077</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="K30" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="L30" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="M30" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="N30" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="L30" s="31" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>65</v>
-      </c>
       <c r="E31" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>6</v>
@@ -3551,19 +3216,20 @@
         <v>43076</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>99</v>
+        <v>164</v>
       </c>
       <c r="I31" s="12">
         <v>43162</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="K31" s="33" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+      <c r="K31" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="L31" s="9"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -3571,13 +3237,13 @@
         <v>16</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>7</v>
@@ -3586,15 +3252,16 @@
         <v>43076</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="K32" s="30" t="s">
-        <v>102</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="L32" s="9"/>
     </row>
     <row r="33" spans="1:13" ht="24" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
@@ -3603,14 +3270,14 @@
       <c r="B33" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="10" t="s">
-        <v>74</v>
+      <c r="C33" s="36" t="s">
+        <v>157</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>6</v>
@@ -3619,20 +3286,19 @@
         <v>43076</v>
       </c>
       <c r="H33" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="I33" s="38">
+        <v>43088</v>
+      </c>
+      <c r="J33" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="I33" s="12">
-        <v>43083</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="K33" s="30"/>
-      <c r="L33" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="M33" s="38" t="s">
-        <v>163</v>
+      <c r="K33" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="L33" s="31" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="24" x14ac:dyDescent="0.3">
@@ -3640,16 +3306,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>76</v>
+        <v>71</v>
+      </c>
+      <c r="C34" s="36" t="s">
+        <v>158</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>6</v>
@@ -3658,69 +3324,71 @@
         <v>43076</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I34" s="12">
         <v>43083</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="K34" s="30" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="24" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
+        <v>87</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="L34" s="9"/>
+    </row>
+    <row r="35" spans="1:13" s="54" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A35" s="39">
         <v>34</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C35" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E35" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="F35" s="6" t="s">
+      <c r="B35" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G35" s="44">
         <v>43076</v>
       </c>
-      <c r="H35" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="I35" s="12">
+      <c r="H35" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="I35" s="44">
         <v>43083</v>
       </c>
-      <c r="J35" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="K35" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="L35" s="37"/>
+      <c r="J35" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="K35" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="L35" s="50"/>
+      <c r="M35" s="45"/>
     </row>
     <row r="36" spans="1:13" ht="24" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>7</v>
@@ -3729,66 +3397,72 @@
         <v>43076</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="I36" s="12">
         <v>43127</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="K36" s="30" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="L36" s="9"/>
+    </row>
+    <row r="37" spans="1:13" ht="48" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="G37" s="12">
         <v>43076</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="I37" s="12">
         <v>43083</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="K37" s="30"/>
-    </row>
-    <row r="38" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="L37" s="35" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="36" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>6</v>
@@ -3797,33 +3471,34 @@
         <v>43076</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="I38" s="12">
         <v>43127</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="K38" s="34" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="60" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+      <c r="K38" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="L38" s="9"/>
+    </row>
+    <row r="39" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>7</v>
@@ -3832,33 +3507,34 @@
         <v>43076</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="I39" s="12">
         <v>43096</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="K39" s="33" t="s">
-        <v>129</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="K39" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="L39" s="9"/>
     </row>
     <row r="40" spans="1:13" ht="36" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>7</v>
@@ -3867,33 +3543,34 @@
         <v>43076</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="I40" s="12">
         <v>43096</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="K40" s="33" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+      <c r="K40" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="L40" s="9"/>
+    </row>
+    <row r="41" spans="1:13" ht="36" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E41" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>6</v>
@@ -3902,202 +3579,458 @@
         <v>43077</v>
       </c>
       <c r="H41" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="I41" s="38">
+        <v>43088</v>
+      </c>
+      <c r="J41" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="I41" s="12">
-        <v>43083</v>
-      </c>
-      <c r="J41" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="K41" s="30"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="31" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>20</v>
+        <v>159</v>
+      </c>
+      <c r="D42" s="27" t="s">
+        <v>139</v>
       </c>
       <c r="E42" s="20" t="s">
         <v>32</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="G42" s="12">
         <v>43087</v>
       </c>
-      <c r="H42" s="10"/>
-      <c r="I42" s="9"/>
+      <c r="H42" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="I42" s="38">
+        <v>43088</v>
+      </c>
       <c r="J42" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="K42" s="30"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" s="2"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="30"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" s="2"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="10"/>
+        <v>85</v>
+      </c>
+      <c r="K42" s="4"/>
+      <c r="L42" s="9"/>
+    </row>
+    <row r="43" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="C43" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="D43" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="38">
+        <v>43087</v>
+      </c>
+      <c r="H43" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="I43" s="38">
+        <v>43088</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K43" s="4"/>
+      <c r="L43" s="31" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="C44" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="D44" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G44" s="38">
+        <v>43087</v>
+      </c>
+      <c r="H44" s="36" t="s">
+        <v>80</v>
+      </c>
       <c r="I44" s="9"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="30"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" s="2"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="10"/>
+      <c r="J44" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K44" s="4"/>
+      <c r="L44" s="9"/>
+    </row>
+    <row r="45" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="C45" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="D45" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G45" s="38">
+        <v>43088</v>
+      </c>
+      <c r="H45" s="36" t="s">
+        <v>82</v>
+      </c>
       <c r="I45" s="9"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="30"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A46" s="2"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="10"/>
+      <c r="J45" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="L45" s="9"/>
+    </row>
+    <row r="46" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="C46" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="D46" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G46" s="38">
+        <v>43088</v>
+      </c>
+      <c r="H46" s="36" t="s">
+        <v>174</v>
+      </c>
       <c r="I46" s="9"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="30"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" s="2"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="10"/>
+      <c r="J46" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="L46" s="9"/>
+    </row>
+    <row r="47" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+      <c r="B47" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="C47" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="D47" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" s="38">
+        <v>43089</v>
+      </c>
+      <c r="H47" s="36" t="s">
+        <v>82</v>
+      </c>
       <c r="I47" s="9"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="30"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" s="2"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="10"/>
+      <c r="J47" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K47" s="4"/>
+      <c r="L47" s="9"/>
+    </row>
+    <row r="48" spans="1:13" ht="60" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="C48" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="D48" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G48" s="38">
+        <v>43089</v>
+      </c>
+      <c r="H48" s="36" t="s">
+        <v>82</v>
+      </c>
       <c r="I48" s="9"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="30"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="2"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="10"/>
+      <c r="J48" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K48" s="4"/>
+      <c r="L48" s="9"/>
+    </row>
+    <row r="49" spans="1:12" ht="60" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="C49" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="D49" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G49" s="38">
+        <v>43089</v>
+      </c>
+      <c r="H49" s="36" t="s">
+        <v>82</v>
+      </c>
       <c r="I49" s="9"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="30"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="2"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="10"/>
+      <c r="J49" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K49" s="4"/>
+      <c r="L49" s="9"/>
+    </row>
+    <row r="50" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="B50" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="C50" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="D50" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G50" s="38">
+        <v>43089</v>
+      </c>
+      <c r="H50" s="36" t="s">
+        <v>82</v>
+      </c>
       <c r="I50" s="9"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="30"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="2"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="30"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="2"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="30"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="2"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="30"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="2"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="10"/>
+      <c r="J50" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K50" s="4"/>
+      <c r="L50" s="9"/>
+    </row>
+    <row r="51" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="B51" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="C51" s="55" t="s">
+        <v>192</v>
+      </c>
+      <c r="D51" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="E51" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G51" s="38">
+        <v>43094</v>
+      </c>
+      <c r="H51" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="I51" s="38">
+        <v>43094</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K51" s="4"/>
+      <c r="L51" s="31" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+      <c r="B52" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="C52" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="D52" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="E52" s="51" t="s">
+        <v>196</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G52" s="38">
+        <v>43095</v>
+      </c>
+      <c r="H52" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="I52" s="38">
+        <v>43095</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="L52" s="31" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>52</v>
+      </c>
+      <c r="B53" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="C53" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="D53" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="E53" s="51" t="s">
+        <v>196</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G53" s="38">
+        <v>43095</v>
+      </c>
+      <c r="H53" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="I53" s="38">
+        <v>43095</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K53" s="4"/>
+      <c r="L53" s="31" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
+      <c r="B54" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="C54" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="D54" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="E54" s="51" t="s">
+        <v>196</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G54" s="38">
+        <v>43095</v>
+      </c>
+      <c r="H54" s="36"/>
       <c r="I54" s="9"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="30"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J54" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K54" s="4"/>
+      <c r="L54" s="9"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
       <c r="B55" s="7"/>
       <c r="C55" s="10"/>
@@ -4108,9 +4041,10 @@
       <c r="H55" s="10"/>
       <c r="I55" s="9"/>
       <c r="J55" s="6"/>
-      <c r="K55" s="30"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K55" s="4"/>
+      <c r="L55" s="9"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="7"/>
       <c r="C56" s="10"/>
@@ -4121,9 +4055,10 @@
       <c r="H56" s="10"/>
       <c r="I56" s="9"/>
       <c r="J56" s="6"/>
-      <c r="K56" s="30"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K56" s="4"/>
+      <c r="L56" s="9"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="7"/>
       <c r="C57" s="10"/>
@@ -4134,9 +4069,10 @@
       <c r="H57" s="10"/>
       <c r="I57" s="9"/>
       <c r="J57" s="6"/>
-      <c r="K57" s="30"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K57" s="4"/>
+      <c r="L57" s="9"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" s="7"/>
       <c r="C58" s="10"/>
@@ -4147,9 +4083,10 @@
       <c r="H58" s="10"/>
       <c r="I58" s="9"/>
       <c r="J58" s="6"/>
-      <c r="K58" s="30"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K58" s="4"/>
+      <c r="L58" s="9"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="B59" s="7"/>
       <c r="C59" s="10"/>
@@ -4160,9 +4097,10 @@
       <c r="H59" s="10"/>
       <c r="I59" s="9"/>
       <c r="J59" s="6"/>
-      <c r="K59" s="30"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K59" s="4"/>
+      <c r="L59" s="9"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" s="7"/>
       <c r="C60" s="10"/>
@@ -4173,9 +4111,10 @@
       <c r="H60" s="10"/>
       <c r="I60" s="9"/>
       <c r="J60" s="6"/>
-      <c r="K60" s="30"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K60" s="4"/>
+      <c r="L60" s="9"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="B61" s="7"/>
       <c r="C61" s="10"/>
@@ -4186,9 +4125,10 @@
       <c r="H61" s="10"/>
       <c r="I61" s="9"/>
       <c r="J61" s="6"/>
-      <c r="K61" s="30"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K61" s="4"/>
+      <c r="L61" s="9"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="B62" s="7"/>
       <c r="C62" s="10"/>
@@ -4199,9 +4139,10 @@
       <c r="H62" s="10"/>
       <c r="I62" s="9"/>
       <c r="J62" s="6"/>
-      <c r="K62" s="30"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K62" s="4"/>
+      <c r="L62" s="9"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="B63" s="7"/>
       <c r="C63" s="10"/>
@@ -4212,9 +4153,10 @@
       <c r="H63" s="10"/>
       <c r="I63" s="9"/>
       <c r="J63" s="6"/>
-      <c r="K63" s="30"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K63" s="4"/>
+      <c r="L63" s="9"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
       <c r="B64" s="7"/>
       <c r="C64" s="10"/>
@@ -4225,9 +4167,10 @@
       <c r="H64" s="10"/>
       <c r="I64" s="9"/>
       <c r="J64" s="6"/>
-      <c r="K64" s="30"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K64" s="4"/>
+      <c r="L64" s="9"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
       <c r="B65" s="7"/>
       <c r="C65" s="10"/>
@@ -4238,9 +4181,10 @@
       <c r="H65" s="10"/>
       <c r="I65" s="9"/>
       <c r="J65" s="6"/>
-      <c r="K65" s="30"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K65" s="4"/>
+      <c r="L65" s="9"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
       <c r="B66" s="7"/>
       <c r="C66" s="10"/>
@@ -4251,9 +4195,10 @@
       <c r="H66" s="10"/>
       <c r="I66" s="9"/>
       <c r="J66" s="6"/>
-      <c r="K66" s="30"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K66" s="4"/>
+      <c r="L66" s="9"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
       <c r="B67" s="7"/>
       <c r="C67" s="10"/>
@@ -4264,9 +4209,10 @@
       <c r="H67" s="10"/>
       <c r="I67" s="9"/>
       <c r="J67" s="6"/>
-      <c r="K67" s="30"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K67" s="4"/>
+      <c r="L67" s="9"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
       <c r="B68" s="7"/>
       <c r="C68" s="10"/>
@@ -4277,9 +4223,10 @@
       <c r="H68" s="10"/>
       <c r="I68" s="9"/>
       <c r="J68" s="6"/>
-      <c r="K68" s="30"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K68" s="4"/>
+      <c r="L68" s="9"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
       <c r="B69" s="7"/>
       <c r="C69" s="10"/>
@@ -4290,9 +4237,10 @@
       <c r="H69" s="10"/>
       <c r="I69" s="9"/>
       <c r="J69" s="6"/>
-      <c r="K69" s="30"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K69" s="4"/>
+      <c r="L69" s="9"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
       <c r="B70" s="7"/>
       <c r="C70" s="10"/>
@@ -4303,9 +4251,10 @@
       <c r="H70" s="10"/>
       <c r="I70" s="9"/>
       <c r="J70" s="6"/>
-      <c r="K70" s="30"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K70" s="4"/>
+      <c r="L70" s="9"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
       <c r="B71" s="7"/>
       <c r="C71" s="10"/>
@@ -4316,9 +4265,10 @@
       <c r="H71" s="10"/>
       <c r="I71" s="9"/>
       <c r="J71" s="6"/>
-      <c r="K71" s="30"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K71" s="4"/>
+      <c r="L71" s="9"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" s="7"/>
       <c r="C72" s="10"/>
@@ -4329,9 +4279,10 @@
       <c r="H72" s="10"/>
       <c r="I72" s="9"/>
       <c r="J72" s="6"/>
-      <c r="K72" s="30"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K72" s="4"/>
+      <c r="L72" s="9"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" s="7"/>
       <c r="C73" s="10"/>
@@ -4342,9 +4293,10 @@
       <c r="H73" s="10"/>
       <c r="I73" s="9"/>
       <c r="J73" s="6"/>
-      <c r="K73" s="30"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K73" s="4"/>
+      <c r="L73" s="9"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
       <c r="B74" s="7"/>
       <c r="C74" s="10"/>
@@ -4355,9 +4307,10 @@
       <c r="H74" s="10"/>
       <c r="I74" s="9"/>
       <c r="J74" s="6"/>
-      <c r="K74" s="30"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K74" s="4"/>
+      <c r="L74" s="9"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
       <c r="B75" s="7"/>
       <c r="C75" s="10"/>
@@ -4368,9 +4321,10 @@
       <c r="H75" s="10"/>
       <c r="I75" s="9"/>
       <c r="J75" s="6"/>
-      <c r="K75" s="30"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K75" s="4"/>
+      <c r="L75" s="9"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" s="7"/>
       <c r="C76" s="10"/>
@@ -4381,9 +4335,10 @@
       <c r="H76" s="10"/>
       <c r="I76" s="9"/>
       <c r="J76" s="6"/>
-      <c r="K76" s="30"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K76" s="4"/>
+      <c r="L76" s="9"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
       <c r="B77" s="7"/>
       <c r="C77" s="10"/>
@@ -4394,9 +4349,10 @@
       <c r="H77" s="10"/>
       <c r="I77" s="9"/>
       <c r="J77" s="6"/>
-      <c r="K77" s="30"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K77" s="4"/>
+      <c r="L77" s="9"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
       <c r="B78" s="7"/>
       <c r="C78" s="10"/>
@@ -4407,9 +4363,10 @@
       <c r="H78" s="10"/>
       <c r="I78" s="9"/>
       <c r="J78" s="6"/>
-      <c r="K78" s="30"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K78" s="4"/>
+      <c r="L78" s="9"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
       <c r="B79" s="7"/>
       <c r="C79" s="10"/>
@@ -4420,9 +4377,10 @@
       <c r="H79" s="10"/>
       <c r="I79" s="9"/>
       <c r="J79" s="6"/>
-      <c r="K79" s="30"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K79" s="4"/>
+      <c r="L79" s="9"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
       <c r="B80" s="7"/>
       <c r="C80" s="10"/>
@@ -4433,9 +4391,10 @@
       <c r="H80" s="10"/>
       <c r="I80" s="9"/>
       <c r="J80" s="6"/>
-      <c r="K80" s="30"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K80" s="4"/>
+      <c r="L80" s="9"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
       <c r="B81" s="7"/>
       <c r="C81" s="10"/>
@@ -4446,9 +4405,10 @@
       <c r="H81" s="10"/>
       <c r="I81" s="9"/>
       <c r="J81" s="6"/>
-      <c r="K81" s="30"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K81" s="4"/>
+      <c r="L81" s="9"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
       <c r="B82" s="7"/>
       <c r="C82" s="10"/>
@@ -4459,9 +4419,10 @@
       <c r="H82" s="10"/>
       <c r="I82" s="9"/>
       <c r="J82" s="6"/>
-      <c r="K82" s="30"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K82" s="4"/>
+      <c r="L82" s="9"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
       <c r="B83" s="7"/>
       <c r="C83" s="10"/>
@@ -4472,9 +4433,10 @@
       <c r="H83" s="10"/>
       <c r="I83" s="9"/>
       <c r="J83" s="6"/>
-      <c r="K83" s="30"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K83" s="4"/>
+      <c r="L83" s="9"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
       <c r="B84" s="7"/>
       <c r="C84" s="10"/>
@@ -4485,9 +4447,10 @@
       <c r="H84" s="10"/>
       <c r="I84" s="9"/>
       <c r="J84" s="6"/>
-      <c r="K84" s="30"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K84" s="4"/>
+      <c r="L84" s="9"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
       <c r="B85" s="7"/>
       <c r="C85" s="10"/>
@@ -4498,9 +4461,10 @@
       <c r="H85" s="10"/>
       <c r="I85" s="9"/>
       <c r="J85" s="6"/>
-      <c r="K85" s="30"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K85" s="4"/>
+      <c r="L85" s="9"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
       <c r="B86" s="7"/>
       <c r="C86" s="10"/>
@@ -4511,9 +4475,10 @@
       <c r="H86" s="10"/>
       <c r="I86" s="9"/>
       <c r="J86" s="6"/>
-      <c r="K86" s="30"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K86" s="4"/>
+      <c r="L86" s="9"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
       <c r="B87" s="7"/>
       <c r="C87" s="10"/>
@@ -4524,9 +4489,10 @@
       <c r="H87" s="10"/>
       <c r="I87" s="9"/>
       <c r="J87" s="6"/>
-      <c r="K87" s="30"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K87" s="4"/>
+      <c r="L87" s="9"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
       <c r="B88" s="7"/>
       <c r="C88" s="10"/>
@@ -4537,9 +4503,10 @@
       <c r="H88" s="10"/>
       <c r="I88" s="9"/>
       <c r="J88" s="6"/>
-      <c r="K88" s="30"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K88" s="4"/>
+      <c r="L88" s="9"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
       <c r="B89" s="7"/>
       <c r="C89" s="10"/>
@@ -4550,9 +4517,10 @@
       <c r="H89" s="10"/>
       <c r="I89" s="9"/>
       <c r="J89" s="6"/>
-      <c r="K89" s="30"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K89" s="4"/>
+      <c r="L89" s="9"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
       <c r="B90" s="7"/>
       <c r="C90" s="10"/>
@@ -4563,9 +4531,10 @@
       <c r="H90" s="10"/>
       <c r="I90" s="9"/>
       <c r="J90" s="6"/>
-      <c r="K90" s="30"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K90" s="4"/>
+      <c r="L90" s="9"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
       <c r="B91" s="7"/>
       <c r="C91" s="10"/>
@@ -4576,9 +4545,10 @@
       <c r="H91" s="10"/>
       <c r="I91" s="9"/>
       <c r="J91" s="6"/>
-      <c r="K91" s="30"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K91" s="4"/>
+      <c r="L91" s="9"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
       <c r="B92" s="7"/>
       <c r="C92" s="10"/>
@@ -4589,9 +4559,10 @@
       <c r="H92" s="10"/>
       <c r="I92" s="9"/>
       <c r="J92" s="6"/>
-      <c r="K92" s="30"/>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K92" s="4"/>
+      <c r="L92" s="9"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
       <c r="B93" s="7"/>
       <c r="C93" s="10"/>
@@ -4602,9 +4573,10 @@
       <c r="H93" s="10"/>
       <c r="I93" s="9"/>
       <c r="J93" s="6"/>
-      <c r="K93" s="30"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K93" s="4"/>
+      <c r="L93" s="9"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
       <c r="B94" s="7"/>
       <c r="C94" s="10"/>
@@ -4615,9 +4587,10 @@
       <c r="H94" s="10"/>
       <c r="I94" s="9"/>
       <c r="J94" s="6"/>
-      <c r="K94" s="30"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K94" s="4"/>
+      <c r="L94" s="9"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
       <c r="B95" s="7"/>
       <c r="C95" s="10"/>
@@ -4628,9 +4601,10 @@
       <c r="H95" s="10"/>
       <c r="I95" s="9"/>
       <c r="J95" s="6"/>
-      <c r="K95" s="30"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K95" s="4"/>
+      <c r="L95" s="9"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
       <c r="B96" s="7"/>
       <c r="C96" s="10"/>
@@ -4641,9 +4615,10 @@
       <c r="H96" s="10"/>
       <c r="I96" s="9"/>
       <c r="J96" s="6"/>
-      <c r="K96" s="30"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K96" s="4"/>
+      <c r="L96" s="9"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
       <c r="B97" s="7"/>
       <c r="C97" s="10"/>
@@ -4654,9 +4629,10 @@
       <c r="H97" s="10"/>
       <c r="I97" s="9"/>
       <c r="J97" s="6"/>
-      <c r="K97" s="30"/>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K97" s="4"/>
+      <c r="L97" s="9"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
       <c r="B98" s="7"/>
       <c r="C98" s="10"/>
@@ -4667,9 +4643,10 @@
       <c r="H98" s="10"/>
       <c r="I98" s="9"/>
       <c r="J98" s="6"/>
-      <c r="K98" s="30"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K98" s="4"/>
+      <c r="L98" s="9"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
       <c r="B99" s="7"/>
       <c r="C99" s="10"/>
@@ -4680,9 +4657,10 @@
       <c r="H99" s="10"/>
       <c r="I99" s="9"/>
       <c r="J99" s="6"/>
-      <c r="K99" s="30"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K99" s="4"/>
+      <c r="L99" s="9"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
       <c r="B100" s="7"/>
       <c r="C100" s="10"/>
@@ -4693,9 +4671,10 @@
       <c r="H100" s="10"/>
       <c r="I100" s="9"/>
       <c r="J100" s="6"/>
-      <c r="K100" s="30"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K100" s="4"/>
+      <c r="L100" s="9"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
       <c r="B101" s="7"/>
       <c r="C101" s="10"/>
@@ -4706,9 +4685,10 @@
       <c r="H101" s="10"/>
       <c r="I101" s="9"/>
       <c r="J101" s="6"/>
-      <c r="K101" s="30"/>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K101" s="4"/>
+      <c r="L101" s="9"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
       <c r="B102" s="7"/>
       <c r="C102" s="10"/>
@@ -4719,9 +4699,10 @@
       <c r="H102" s="10"/>
       <c r="I102" s="9"/>
       <c r="J102" s="6"/>
-      <c r="K102" s="30"/>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K102" s="4"/>
+      <c r="L102" s="9"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
       <c r="B103" s="7"/>
       <c r="C103" s="10"/>
@@ -4732,9 +4713,10 @@
       <c r="H103" s="10"/>
       <c r="I103" s="9"/>
       <c r="J103" s="6"/>
-      <c r="K103" s="30"/>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K103" s="4"/>
+      <c r="L103" s="9"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
       <c r="B104" s="7"/>
       <c r="C104" s="10"/>
@@ -4745,9 +4727,10 @@
       <c r="H104" s="10"/>
       <c r="I104" s="9"/>
       <c r="J104" s="6"/>
-      <c r="K104" s="30"/>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K104" s="4"/>
+      <c r="L104" s="9"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
       <c r="B105" s="7"/>
       <c r="C105" s="10"/>
@@ -4758,9 +4741,10 @@
       <c r="H105" s="10"/>
       <c r="I105" s="9"/>
       <c r="J105" s="6"/>
-      <c r="K105" s="30"/>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K105" s="4"/>
+      <c r="L105" s="9"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
       <c r="B106" s="7"/>
       <c r="C106" s="10"/>
@@ -4771,9 +4755,10 @@
       <c r="H106" s="10"/>
       <c r="I106" s="9"/>
       <c r="J106" s="6"/>
-      <c r="K106" s="30"/>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K106" s="4"/>
+      <c r="L106" s="9"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
       <c r="B107" s="7"/>
       <c r="C107" s="10"/>
@@ -4784,9 +4769,10 @@
       <c r="H107" s="10"/>
       <c r="I107" s="9"/>
       <c r="J107" s="6"/>
-      <c r="K107" s="30"/>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K107" s="4"/>
+      <c r="L107" s="9"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
       <c r="B108" s="7"/>
       <c r="C108" s="10"/>
@@ -4797,9 +4783,10 @@
       <c r="H108" s="10"/>
       <c r="I108" s="9"/>
       <c r="J108" s="6"/>
-      <c r="K108" s="30"/>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K108" s="4"/>
+      <c r="L108" s="9"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="2"/>
       <c r="B109" s="7"/>
       <c r="C109" s="10"/>
@@ -4810,9 +4797,10 @@
       <c r="H109" s="10"/>
       <c r="I109" s="9"/>
       <c r="J109" s="6"/>
-      <c r="K109" s="30"/>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K109" s="4"/>
+      <c r="L109" s="9"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
       <c r="B110" s="7"/>
       <c r="C110" s="10"/>
@@ -4823,9 +4811,10 @@
       <c r="H110" s="10"/>
       <c r="I110" s="9"/>
       <c r="J110" s="6"/>
-      <c r="K110" s="30"/>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K110" s="4"/>
+      <c r="L110" s="9"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="2"/>
       <c r="B111" s="7"/>
       <c r="C111" s="10"/>
@@ -4836,9 +4825,10 @@
       <c r="H111" s="10"/>
       <c r="I111" s="9"/>
       <c r="J111" s="6"/>
-      <c r="K111" s="30"/>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K111" s="4"/>
+      <c r="L111" s="9"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="2"/>
       <c r="B112" s="7"/>
       <c r="C112" s="10"/>
@@ -4849,9 +4839,10 @@
       <c r="H112" s="10"/>
       <c r="I112" s="9"/>
       <c r="J112" s="6"/>
-      <c r="K112" s="30"/>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K112" s="4"/>
+      <c r="L112" s="9"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
       <c r="B113" s="7"/>
       <c r="C113" s="10"/>
@@ -4862,9 +4853,10 @@
       <c r="H113" s="10"/>
       <c r="I113" s="9"/>
       <c r="J113" s="6"/>
-      <c r="K113" s="30"/>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K113" s="4"/>
+      <c r="L113" s="9"/>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
       <c r="B114" s="7"/>
       <c r="C114" s="10"/>
@@ -4875,9 +4867,10 @@
       <c r="H114" s="10"/>
       <c r="I114" s="9"/>
       <c r="J114" s="6"/>
-      <c r="K114" s="30"/>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K114" s="4"/>
+      <c r="L114" s="9"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" s="2"/>
       <c r="B115" s="7"/>
       <c r="C115" s="10"/>
@@ -4888,9 +4881,10 @@
       <c r="H115" s="10"/>
       <c r="I115" s="9"/>
       <c r="J115" s="6"/>
-      <c r="K115" s="30"/>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K115" s="4"/>
+      <c r="L115" s="9"/>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
       <c r="B116" s="7"/>
       <c r="C116" s="10"/>
@@ -4901,9 +4895,10 @@
       <c r="H116" s="10"/>
       <c r="I116" s="9"/>
       <c r="J116" s="6"/>
-      <c r="K116" s="30"/>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K116" s="4"/>
+      <c r="L116" s="9"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
       <c r="B117" s="7"/>
       <c r="C117" s="10"/>
@@ -4914,9 +4909,10 @@
       <c r="H117" s="10"/>
       <c r="I117" s="9"/>
       <c r="J117" s="6"/>
-      <c r="K117" s="30"/>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K117" s="4"/>
+      <c r="L117" s="9"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
       <c r="B118" s="7"/>
       <c r="C118" s="10"/>
@@ -4927,9 +4923,10 @@
       <c r="H118" s="10"/>
       <c r="I118" s="9"/>
       <c r="J118" s="6"/>
-      <c r="K118" s="30"/>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K118" s="4"/>
+      <c r="L118" s="9"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" s="2"/>
       <c r="B119" s="7"/>
       <c r="C119" s="10"/>
@@ -4940,9 +4937,10 @@
       <c r="H119" s="10"/>
       <c r="I119" s="9"/>
       <c r="J119" s="6"/>
-      <c r="K119" s="30"/>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K119" s="4"/>
+      <c r="L119" s="9"/>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" s="2"/>
       <c r="B120" s="7"/>
       <c r="C120" s="10"/>
@@ -4953,9 +4951,10 @@
       <c r="H120" s="10"/>
       <c r="I120" s="9"/>
       <c r="J120" s="6"/>
-      <c r="K120" s="30"/>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K120" s="4"/>
+      <c r="L120" s="9"/>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="2"/>
       <c r="B121" s="7"/>
       <c r="C121" s="10"/>
@@ -4966,9 +4965,10 @@
       <c r="H121" s="10"/>
       <c r="I121" s="9"/>
       <c r="J121" s="6"/>
-      <c r="K121" s="30"/>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K121" s="4"/>
+      <c r="L121" s="9"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" s="2"/>
       <c r="B122" s="7"/>
       <c r="C122" s="10"/>
@@ -4979,9 +4979,10 @@
       <c r="H122" s="10"/>
       <c r="I122" s="9"/>
       <c r="J122" s="6"/>
-      <c r="K122" s="30"/>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K122" s="4"/>
+      <c r="L122" s="9"/>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
       <c r="B123" s="7"/>
       <c r="C123" s="10"/>
@@ -4992,9 +4993,10 @@
       <c r="H123" s="10"/>
       <c r="I123" s="9"/>
       <c r="J123" s="6"/>
-      <c r="K123" s="30"/>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K123" s="4"/>
+      <c r="L123" s="9"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" s="2"/>
       <c r="B124" s="7"/>
       <c r="C124" s="10"/>
@@ -5005,9 +5007,10 @@
       <c r="H124" s="10"/>
       <c r="I124" s="9"/>
       <c r="J124" s="6"/>
-      <c r="K124" s="30"/>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K124" s="4"/>
+      <c r="L124" s="9"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="2"/>
       <c r="B125" s="7"/>
       <c r="C125" s="10"/>
@@ -5018,9 +5021,10 @@
       <c r="H125" s="10"/>
       <c r="I125" s="9"/>
       <c r="J125" s="6"/>
-      <c r="K125" s="30"/>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K125" s="4"/>
+      <c r="L125" s="9"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" s="2"/>
       <c r="B126" s="7"/>
       <c r="C126" s="10"/>
@@ -5031,9 +5035,10 @@
       <c r="H126" s="10"/>
       <c r="I126" s="9"/>
       <c r="J126" s="6"/>
-      <c r="K126" s="30"/>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K126" s="4"/>
+      <c r="L126" s="9"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" s="2"/>
       <c r="B127" s="7"/>
       <c r="C127" s="10"/>
@@ -5044,9 +5049,10 @@
       <c r="H127" s="10"/>
       <c r="I127" s="9"/>
       <c r="J127" s="6"/>
-      <c r="K127" s="30"/>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K127" s="4"/>
+      <c r="L127" s="9"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
       <c r="B128" s="7"/>
       <c r="C128" s="10"/>
@@ -5057,9 +5063,10 @@
       <c r="H128" s="10"/>
       <c r="I128" s="9"/>
       <c r="J128" s="6"/>
-      <c r="K128" s="30"/>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K128" s="4"/>
+      <c r="L128" s="9"/>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" s="2"/>
       <c r="B129" s="7"/>
       <c r="C129" s="10"/>
@@ -5070,9 +5077,10 @@
       <c r="H129" s="10"/>
       <c r="I129" s="9"/>
       <c r="J129" s="6"/>
-      <c r="K129" s="30"/>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K129" s="4"/>
+      <c r="L129" s="9"/>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" s="2"/>
       <c r="B130" s="7"/>
       <c r="C130" s="10"/>
@@ -5083,9 +5091,10 @@
       <c r="H130" s="10"/>
       <c r="I130" s="9"/>
       <c r="J130" s="6"/>
-      <c r="K130" s="30"/>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K130" s="4"/>
+      <c r="L130" s="9"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" s="2"/>
       <c r="B131" s="7"/>
       <c r="C131" s="10"/>
@@ -5096,9 +5105,10 @@
       <c r="H131" s="10"/>
       <c r="I131" s="9"/>
       <c r="J131" s="6"/>
-      <c r="K131" s="30"/>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K131" s="4"/>
+      <c r="L131" s="9"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
       <c r="B132" s="7"/>
       <c r="C132" s="10"/>
@@ -5109,9 +5119,10 @@
       <c r="H132" s="10"/>
       <c r="I132" s="9"/>
       <c r="J132" s="6"/>
-      <c r="K132" s="30"/>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K132" s="4"/>
+      <c r="L132" s="9"/>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" s="2"/>
       <c r="B133" s="7"/>
       <c r="C133" s="10"/>
@@ -5122,9 +5133,10 @@
       <c r="H133" s="10"/>
       <c r="I133" s="9"/>
       <c r="J133" s="6"/>
-      <c r="K133" s="30"/>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K133" s="4"/>
+      <c r="L133" s="9"/>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" s="2"/>
       <c r="B134" s="7"/>
       <c r="C134" s="10"/>
@@ -5135,9 +5147,10 @@
       <c r="H134" s="10"/>
       <c r="I134" s="9"/>
       <c r="J134" s="6"/>
-      <c r="K134" s="30"/>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K134" s="4"/>
+      <c r="L134" s="9"/>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" s="2"/>
       <c r="B135" s="7"/>
       <c r="C135" s="10"/>
@@ -5148,9 +5161,10 @@
       <c r="H135" s="10"/>
       <c r="I135" s="9"/>
       <c r="J135" s="6"/>
-      <c r="K135" s="30"/>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K135" s="4"/>
+      <c r="L135" s="9"/>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" s="2"/>
       <c r="B136" s="7"/>
       <c r="C136" s="10"/>
@@ -5161,9 +5175,10 @@
       <c r="H136" s="10"/>
       <c r="I136" s="9"/>
       <c r="J136" s="6"/>
-      <c r="K136" s="30"/>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K136" s="4"/>
+      <c r="L136" s="9"/>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" s="2"/>
       <c r="B137" s="7"/>
       <c r="C137" s="10"/>
@@ -5174,9 +5189,10 @@
       <c r="H137" s="10"/>
       <c r="I137" s="9"/>
       <c r="J137" s="6"/>
-      <c r="K137" s="30"/>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K137" s="4"/>
+      <c r="L137" s="9"/>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" s="2"/>
       <c r="B138" s="7"/>
       <c r="C138" s="10"/>
@@ -5187,9 +5203,10 @@
       <c r="H138" s="10"/>
       <c r="I138" s="9"/>
       <c r="J138" s="6"/>
-      <c r="K138" s="30"/>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K138" s="4"/>
+      <c r="L138" s="9"/>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" s="2"/>
       <c r="B139" s="7"/>
       <c r="C139" s="10"/>
@@ -5200,9 +5217,10 @@
       <c r="H139" s="10"/>
       <c r="I139" s="9"/>
       <c r="J139" s="6"/>
-      <c r="K139" s="30"/>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K139" s="4"/>
+      <c r="L139" s="9"/>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" s="2"/>
       <c r="B140" s="7"/>
       <c r="C140" s="10"/>
@@ -5213,9 +5231,10 @@
       <c r="H140" s="10"/>
       <c r="I140" s="9"/>
       <c r="J140" s="6"/>
-      <c r="K140" s="30"/>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K140" s="4"/>
+      <c r="L140" s="9"/>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" s="2"/>
       <c r="B141" s="7"/>
       <c r="C141" s="10"/>
@@ -5226,9 +5245,10 @@
       <c r="H141" s="10"/>
       <c r="I141" s="9"/>
       <c r="J141" s="6"/>
-      <c r="K141" s="30"/>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K141" s="4"/>
+      <c r="L141" s="9"/>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" s="2"/>
       <c r="B142" s="7"/>
       <c r="C142" s="10"/>
@@ -5239,9 +5259,10 @@
       <c r="H142" s="10"/>
       <c r="I142" s="9"/>
       <c r="J142" s="6"/>
-      <c r="K142" s="30"/>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K142" s="4"/>
+      <c r="L142" s="9"/>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" s="2"/>
       <c r="B143" s="7"/>
       <c r="C143" s="10"/>
@@ -5252,9 +5273,10 @@
       <c r="H143" s="10"/>
       <c r="I143" s="9"/>
       <c r="J143" s="6"/>
-      <c r="K143" s="30"/>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K143" s="4"/>
+      <c r="L143" s="9"/>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" s="2"/>
       <c r="B144" s="7"/>
       <c r="C144" s="10"/>
@@ -5265,9 +5287,10 @@
       <c r="H144" s="10"/>
       <c r="I144" s="9"/>
       <c r="J144" s="6"/>
-      <c r="K144" s="30"/>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K144" s="4"/>
+      <c r="L144" s="9"/>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" s="2"/>
       <c r="B145" s="7"/>
       <c r="C145" s="10"/>
@@ -5278,9 +5301,10 @@
       <c r="H145" s="10"/>
       <c r="I145" s="9"/>
       <c r="J145" s="6"/>
-      <c r="K145" s="30"/>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K145" s="4"/>
+      <c r="L145" s="9"/>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" s="2"/>
       <c r="B146" s="7"/>
       <c r="C146" s="10"/>
@@ -5291,9 +5315,10 @@
       <c r="H146" s="10"/>
       <c r="I146" s="9"/>
       <c r="J146" s="6"/>
-      <c r="K146" s="30"/>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K146" s="4"/>
+      <c r="L146" s="9"/>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" s="2"/>
       <c r="B147" s="7"/>
       <c r="C147" s="10"/>
@@ -5304,9 +5329,10 @@
       <c r="H147" s="10"/>
       <c r="I147" s="9"/>
       <c r="J147" s="6"/>
-      <c r="K147" s="30"/>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K147" s="4"/>
+      <c r="L147" s="9"/>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" s="2"/>
       <c r="B148" s="7"/>
       <c r="C148" s="10"/>
@@ -5317,9 +5343,10 @@
       <c r="H148" s="10"/>
       <c r="I148" s="9"/>
       <c r="J148" s="6"/>
-      <c r="K148" s="30"/>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K148" s="4"/>
+      <c r="L148" s="9"/>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" s="2"/>
       <c r="B149" s="7"/>
       <c r="C149" s="10"/>
@@ -5330,9 +5357,10 @@
       <c r="H149" s="10"/>
       <c r="I149" s="9"/>
       <c r="J149" s="6"/>
-      <c r="K149" s="30"/>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K149" s="4"/>
+      <c r="L149" s="9"/>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" s="2"/>
       <c r="B150" s="7"/>
       <c r="C150" s="10"/>
@@ -5343,9 +5371,10 @@
       <c r="H150" s="10"/>
       <c r="I150" s="9"/>
       <c r="J150" s="6"/>
-      <c r="K150" s="30"/>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K150" s="4"/>
+      <c r="L150" s="9"/>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" s="2"/>
       <c r="B151" s="7"/>
       <c r="C151" s="10"/>
@@ -5356,9 +5385,10 @@
       <c r="H151" s="10"/>
       <c r="I151" s="9"/>
       <c r="J151" s="6"/>
-      <c r="K151" s="30"/>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K151" s="4"/>
+      <c r="L151" s="9"/>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" s="2"/>
       <c r="B152" s="7"/>
       <c r="C152" s="10"/>
@@ -5369,9 +5399,10 @@
       <c r="H152" s="10"/>
       <c r="I152" s="9"/>
       <c r="J152" s="6"/>
-      <c r="K152" s="30"/>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K152" s="4"/>
+      <c r="L152" s="9"/>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" s="2"/>
       <c r="B153" s="7"/>
       <c r="C153" s="10"/>
@@ -5382,9 +5413,10 @@
       <c r="H153" s="10"/>
       <c r="I153" s="9"/>
       <c r="J153" s="6"/>
-      <c r="K153" s="30"/>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K153" s="4"/>
+      <c r="L153" s="9"/>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" s="2"/>
       <c r="B154" s="7"/>
       <c r="C154" s="10"/>
@@ -5395,9 +5427,10 @@
       <c r="H154" s="10"/>
       <c r="I154" s="9"/>
       <c r="J154" s="6"/>
-      <c r="K154" s="30"/>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K154" s="4"/>
+      <c r="L154" s="9"/>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" s="2"/>
       <c r="B155" s="7"/>
       <c r="C155" s="10"/>
@@ -5408,9 +5441,10 @@
       <c r="H155" s="10"/>
       <c r="I155" s="9"/>
       <c r="J155" s="6"/>
-      <c r="K155" s="30"/>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K155" s="4"/>
+      <c r="L155" s="9"/>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" s="2"/>
       <c r="B156" s="7"/>
       <c r="C156" s="10"/>
@@ -5421,9 +5455,10 @@
       <c r="H156" s="10"/>
       <c r="I156" s="9"/>
       <c r="J156" s="6"/>
-      <c r="K156" s="30"/>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K156" s="4"/>
+      <c r="L156" s="9"/>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" s="2"/>
       <c r="B157" s="7"/>
       <c r="C157" s="10"/>
@@ -5434,9 +5469,10 @@
       <c r="H157" s="10"/>
       <c r="I157" s="9"/>
       <c r="J157" s="6"/>
-      <c r="K157" s="30"/>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K157" s="4"/>
+      <c r="L157" s="9"/>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" s="2"/>
       <c r="B158" s="7"/>
       <c r="C158" s="10"/>
@@ -5447,9 +5483,10 @@
       <c r="H158" s="10"/>
       <c r="I158" s="9"/>
       <c r="J158" s="6"/>
-      <c r="K158" s="30"/>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K158" s="4"/>
+      <c r="L158" s="9"/>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" s="2"/>
       <c r="B159" s="7"/>
       <c r="C159" s="10"/>
@@ -5460,9 +5497,10 @@
       <c r="H159" s="10"/>
       <c r="I159" s="9"/>
       <c r="J159" s="6"/>
-      <c r="K159" s="30"/>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K159" s="4"/>
+      <c r="L159" s="9"/>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" s="2"/>
       <c r="B160" s="7"/>
       <c r="C160" s="10"/>
@@ -5473,9 +5511,10 @@
       <c r="H160" s="10"/>
       <c r="I160" s="9"/>
       <c r="J160" s="6"/>
-      <c r="K160" s="30"/>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K160" s="4"/>
+      <c r="L160" s="9"/>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" s="2"/>
       <c r="B161" s="7"/>
       <c r="C161" s="10"/>
@@ -5486,9 +5525,10 @@
       <c r="H161" s="10"/>
       <c r="I161" s="9"/>
       <c r="J161" s="6"/>
-      <c r="K161" s="30"/>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K161" s="4"/>
+      <c r="L161" s="9"/>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" s="2"/>
       <c r="B162" s="7"/>
       <c r="C162" s="10"/>
@@ -5499,9 +5539,10 @@
       <c r="H162" s="10"/>
       <c r="I162" s="9"/>
       <c r="J162" s="6"/>
-      <c r="K162" s="30"/>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K162" s="4"/>
+      <c r="L162" s="9"/>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" s="2"/>
       <c r="B163" s="7"/>
       <c r="C163" s="10"/>
@@ -5512,9 +5553,10 @@
       <c r="H163" s="10"/>
       <c r="I163" s="9"/>
       <c r="J163" s="6"/>
-      <c r="K163" s="30"/>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K163" s="4"/>
+      <c r="L163" s="9"/>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" s="2"/>
       <c r="B164" s="7"/>
       <c r="C164" s="10"/>
@@ -5525,9 +5567,10 @@
       <c r="H164" s="10"/>
       <c r="I164" s="9"/>
       <c r="J164" s="6"/>
-      <c r="K164" s="30"/>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K164" s="4"/>
+      <c r="L164" s="9"/>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" s="2"/>
       <c r="B165" s="7"/>
       <c r="C165" s="10"/>
@@ -5538,9 +5581,10 @@
       <c r="H165" s="10"/>
       <c r="I165" s="9"/>
       <c r="J165" s="6"/>
-      <c r="K165" s="30"/>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K165" s="4"/>
+      <c r="L165" s="9"/>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166" s="2"/>
       <c r="B166" s="7"/>
       <c r="C166" s="10"/>
@@ -5551,9 +5595,10 @@
       <c r="H166" s="10"/>
       <c r="I166" s="9"/>
       <c r="J166" s="6"/>
-      <c r="K166" s="30"/>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K166" s="4"/>
+      <c r="L166" s="9"/>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" s="2"/>
       <c r="B167" s="7"/>
       <c r="C167" s="10"/>
@@ -5564,9 +5609,10 @@
       <c r="H167" s="10"/>
       <c r="I167" s="9"/>
       <c r="J167" s="6"/>
-      <c r="K167" s="30"/>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K167" s="4"/>
+      <c r="L167" s="9"/>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" s="2"/>
       <c r="B168" s="7"/>
       <c r="C168" s="10"/>
@@ -5577,9 +5623,10 @@
       <c r="H168" s="10"/>
       <c r="I168" s="9"/>
       <c r="J168" s="6"/>
-      <c r="K168" s="30"/>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K168" s="4"/>
+      <c r="L168" s="9"/>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169" s="2"/>
       <c r="B169" s="7"/>
       <c r="C169" s="10"/>
@@ -5590,9 +5637,10 @@
       <c r="H169" s="10"/>
       <c r="I169" s="9"/>
       <c r="J169" s="6"/>
-      <c r="K169" s="30"/>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K169" s="4"/>
+      <c r="L169" s="9"/>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170" s="2"/>
       <c r="B170" s="7"/>
       <c r="C170" s="10"/>
@@ -5603,9 +5651,10 @@
       <c r="H170" s="10"/>
       <c r="I170" s="9"/>
       <c r="J170" s="6"/>
-      <c r="K170" s="30"/>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K170" s="4"/>
+      <c r="L170" s="9"/>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171" s="2"/>
       <c r="B171" s="7"/>
       <c r="C171" s="10"/>
@@ -5616,9 +5665,10 @@
       <c r="H171" s="10"/>
       <c r="I171" s="9"/>
       <c r="J171" s="6"/>
-      <c r="K171" s="30"/>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K171" s="4"/>
+      <c r="L171" s="9"/>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172" s="2"/>
       <c r="B172" s="7"/>
       <c r="C172" s="10"/>
@@ -5629,9 +5679,10 @@
       <c r="H172" s="10"/>
       <c r="I172" s="9"/>
       <c r="J172" s="6"/>
-      <c r="K172" s="30"/>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K172" s="4"/>
+      <c r="L172" s="9"/>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173" s="2"/>
       <c r="B173" s="7"/>
       <c r="C173" s="10"/>
@@ -5642,9 +5693,10 @@
       <c r="H173" s="10"/>
       <c r="I173" s="9"/>
       <c r="J173" s="6"/>
-      <c r="K173" s="30"/>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K173" s="4"/>
+      <c r="L173" s="9"/>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174" s="2"/>
       <c r="B174" s="7"/>
       <c r="C174" s="10"/>
@@ -5655,9 +5707,10 @@
       <c r="H174" s="10"/>
       <c r="I174" s="9"/>
       <c r="J174" s="6"/>
-      <c r="K174" s="30"/>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K174" s="4"/>
+      <c r="L174" s="9"/>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175" s="2"/>
       <c r="B175" s="7"/>
       <c r="C175" s="10"/>
@@ -5668,9 +5721,10 @@
       <c r="H175" s="10"/>
       <c r="I175" s="9"/>
       <c r="J175" s="6"/>
-      <c r="K175" s="30"/>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K175" s="4"/>
+      <c r="L175" s="9"/>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176" s="2"/>
       <c r="B176" s="7"/>
       <c r="C176" s="10"/>
@@ -5681,9 +5735,10 @@
       <c r="H176" s="10"/>
       <c r="I176" s="9"/>
       <c r="J176" s="6"/>
-      <c r="K176" s="30"/>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K176" s="4"/>
+      <c r="L176" s="9"/>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177" s="2"/>
       <c r="B177" s="7"/>
       <c r="C177" s="10"/>
@@ -5694,9 +5749,10 @@
       <c r="H177" s="10"/>
       <c r="I177" s="9"/>
       <c r="J177" s="6"/>
-      <c r="K177" s="30"/>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K177" s="4"/>
+      <c r="L177" s="9"/>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178" s="2"/>
       <c r="B178" s="7"/>
       <c r="C178" s="10"/>
@@ -5707,9 +5763,10 @@
       <c r="H178" s="10"/>
       <c r="I178" s="9"/>
       <c r="J178" s="6"/>
-      <c r="K178" s="30"/>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K178" s="4"/>
+      <c r="L178" s="9"/>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179" s="2"/>
       <c r="B179" s="7"/>
       <c r="C179" s="10"/>
@@ -5720,9 +5777,10 @@
       <c r="H179" s="10"/>
       <c r="I179" s="9"/>
       <c r="J179" s="6"/>
-      <c r="K179" s="30"/>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K179" s="4"/>
+      <c r="L179" s="9"/>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180" s="2"/>
       <c r="B180" s="7"/>
       <c r="C180" s="10"/>
@@ -5733,9 +5791,10 @@
       <c r="H180" s="10"/>
       <c r="I180" s="9"/>
       <c r="J180" s="6"/>
-      <c r="K180" s="30"/>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K180" s="4"/>
+      <c r="L180" s="9"/>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181" s="2"/>
       <c r="B181" s="7"/>
       <c r="C181" s="10"/>
@@ -5746,9 +5805,10 @@
       <c r="H181" s="10"/>
       <c r="I181" s="9"/>
       <c r="J181" s="6"/>
-      <c r="K181" s="30"/>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K181" s="4"/>
+      <c r="L181" s="9"/>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182" s="2"/>
       <c r="B182" s="7"/>
       <c r="C182" s="10"/>
@@ -5759,9 +5819,10 @@
       <c r="H182" s="10"/>
       <c r="I182" s="9"/>
       <c r="J182" s="6"/>
-      <c r="K182" s="30"/>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K182" s="4"/>
+      <c r="L182" s="9"/>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183" s="2"/>
       <c r="B183" s="7"/>
       <c r="C183" s="10"/>
@@ -5772,9 +5833,10 @@
       <c r="H183" s="10"/>
       <c r="I183" s="9"/>
       <c r="J183" s="6"/>
-      <c r="K183" s="30"/>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K183" s="4"/>
+      <c r="L183" s="9"/>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184" s="2"/>
       <c r="B184" s="7"/>
       <c r="C184" s="10"/>
@@ -5785,9 +5847,10 @@
       <c r="H184" s="10"/>
       <c r="I184" s="9"/>
       <c r="J184" s="6"/>
-      <c r="K184" s="30"/>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K184" s="4"/>
+      <c r="L184" s="9"/>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185" s="2"/>
       <c r="B185" s="7"/>
       <c r="C185" s="10"/>
@@ -5798,9 +5861,10 @@
       <c r="H185" s="10"/>
       <c r="I185" s="9"/>
       <c r="J185" s="6"/>
-      <c r="K185" s="30"/>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K185" s="4"/>
+      <c r="L185" s="9"/>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186" s="2"/>
       <c r="B186" s="7"/>
       <c r="C186" s="10"/>
@@ -5811,9 +5875,10 @@
       <c r="H186" s="10"/>
       <c r="I186" s="9"/>
       <c r="J186" s="6"/>
-      <c r="K186" s="30"/>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K186" s="4"/>
+      <c r="L186" s="9"/>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187" s="2"/>
       <c r="B187" s="7"/>
       <c r="C187" s="10"/>
@@ -5824,9 +5889,10 @@
       <c r="H187" s="10"/>
       <c r="I187" s="9"/>
       <c r="J187" s="6"/>
-      <c r="K187" s="30"/>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K187" s="4"/>
+      <c r="L187" s="9"/>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188" s="2"/>
       <c r="B188" s="7"/>
       <c r="C188" s="10"/>
@@ -5837,9 +5903,10 @@
       <c r="H188" s="10"/>
       <c r="I188" s="9"/>
       <c r="J188" s="6"/>
-      <c r="K188" s="30"/>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K188" s="4"/>
+      <c r="L188" s="9"/>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189" s="2"/>
       <c r="B189" s="7"/>
       <c r="C189" s="10"/>
@@ -5850,9 +5917,10 @@
       <c r="H189" s="10"/>
       <c r="I189" s="9"/>
       <c r="J189" s="6"/>
-      <c r="K189" s="30"/>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K189" s="4"/>
+      <c r="L189" s="9"/>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190" s="2"/>
       <c r="B190" s="7"/>
       <c r="C190" s="10"/>
@@ -5863,9 +5931,10 @@
       <c r="H190" s="10"/>
       <c r="I190" s="9"/>
       <c r="J190" s="6"/>
-      <c r="K190" s="30"/>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K190" s="4"/>
+      <c r="L190" s="9"/>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191" s="2"/>
       <c r="B191" s="7"/>
       <c r="C191" s="10"/>
@@ -5876,9 +5945,10 @@
       <c r="H191" s="10"/>
       <c r="I191" s="9"/>
       <c r="J191" s="6"/>
-      <c r="K191" s="30"/>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K191" s="4"/>
+      <c r="L191" s="9"/>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192" s="2"/>
       <c r="B192" s="7"/>
       <c r="C192" s="10"/>
@@ -5889,9 +5959,10 @@
       <c r="H192" s="10"/>
       <c r="I192" s="9"/>
       <c r="J192" s="6"/>
-      <c r="K192" s="30"/>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K192" s="4"/>
+      <c r="L192" s="9"/>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193" s="2"/>
       <c r="B193" s="7"/>
       <c r="C193" s="10"/>
@@ -5902,9 +5973,10 @@
       <c r="H193" s="10"/>
       <c r="I193" s="9"/>
       <c r="J193" s="6"/>
-      <c r="K193" s="30"/>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K193" s="4"/>
+      <c r="L193" s="9"/>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194" s="2"/>
       <c r="B194" s="7"/>
       <c r="C194" s="10"/>
@@ -5915,9 +5987,10 @@
       <c r="H194" s="10"/>
       <c r="I194" s="9"/>
       <c r="J194" s="6"/>
-      <c r="K194" s="30"/>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K194" s="4"/>
+      <c r="L194" s="9"/>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195" s="2"/>
       <c r="B195" s="7"/>
       <c r="C195" s="10"/>
@@ -5928,9 +6001,10 @@
       <c r="H195" s="10"/>
       <c r="I195" s="9"/>
       <c r="J195" s="6"/>
-      <c r="K195" s="30"/>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K195" s="4"/>
+      <c r="L195" s="9"/>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A196" s="2"/>
       <c r="B196" s="7"/>
       <c r="C196" s="10"/>
@@ -5941,9 +6015,10 @@
       <c r="H196" s="10"/>
       <c r="I196" s="9"/>
       <c r="J196" s="6"/>
-      <c r="K196" s="30"/>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K196" s="4"/>
+      <c r="L196" s="9"/>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A197" s="2"/>
       <c r="B197" s="7"/>
       <c r="C197" s="10"/>
@@ -5954,9 +6029,10 @@
       <c r="H197" s="10"/>
       <c r="I197" s="9"/>
       <c r="J197" s="6"/>
-      <c r="K197" s="30"/>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K197" s="4"/>
+      <c r="L197" s="9"/>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A198" s="2"/>
       <c r="B198" s="7"/>
       <c r="C198" s="10"/>
@@ -5967,9 +6043,10 @@
       <c r="H198" s="10"/>
       <c r="I198" s="9"/>
       <c r="J198" s="6"/>
-      <c r="K198" s="30"/>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K198" s="4"/>
+      <c r="L198" s="9"/>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A199" s="2"/>
       <c r="B199" s="7"/>
       <c r="C199" s="10"/>
@@ -5980,9 +6057,10 @@
       <c r="H199" s="10"/>
       <c r="I199" s="9"/>
       <c r="J199" s="6"/>
-      <c r="K199" s="30"/>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K199" s="4"/>
+      <c r="L199" s="9"/>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A200" s="2"/>
       <c r="B200" s="7"/>
       <c r="C200" s="10"/>
@@ -5993,9 +6071,10 @@
       <c r="H200" s="10"/>
       <c r="I200" s="9"/>
       <c r="J200" s="6"/>
-      <c r="K200" s="30"/>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K200" s="4"/>
+      <c r="L200" s="9"/>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A201" s="2"/>
       <c r="B201" s="7"/>
       <c r="C201" s="10"/>
@@ -6006,9 +6085,10 @@
       <c r="H201" s="10"/>
       <c r="I201" s="9"/>
       <c r="J201" s="6"/>
-      <c r="K201" s="30"/>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K201" s="4"/>
+      <c r="L201" s="9"/>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A202" s="2"/>
       <c r="B202" s="7"/>
       <c r="C202" s="10"/>
@@ -6019,9 +6099,10 @@
       <c r="H202" s="10"/>
       <c r="I202" s="9"/>
       <c r="J202" s="6"/>
-      <c r="K202" s="30"/>
-    </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K202" s="4"/>
+      <c r="L202" s="9"/>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A203" s="2"/>
       <c r="B203" s="7"/>
       <c r="C203" s="10"/>
@@ -6032,9 +6113,10 @@
       <c r="H203" s="10"/>
       <c r="I203" s="9"/>
       <c r="J203" s="6"/>
-      <c r="K203" s="30"/>
-    </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K203" s="4"/>
+      <c r="L203" s="9"/>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A204" s="2"/>
       <c r="B204" s="7"/>
       <c r="C204" s="10"/>
@@ -6045,9 +6127,10 @@
       <c r="H204" s="10"/>
       <c r="I204" s="9"/>
       <c r="J204" s="6"/>
-      <c r="K204" s="30"/>
-    </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K204" s="4"/>
+      <c r="L204" s="9"/>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A205" s="2"/>
       <c r="B205" s="7"/>
       <c r="C205" s="10"/>
@@ -6058,9 +6141,10 @@
       <c r="H205" s="10"/>
       <c r="I205" s="9"/>
       <c r="J205" s="6"/>
-      <c r="K205" s="30"/>
-    </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K205" s="4"/>
+      <c r="L205" s="9"/>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A206" s="2"/>
       <c r="B206" s="7"/>
       <c r="C206" s="10"/>
@@ -6071,9 +6155,10 @@
       <c r="H206" s="10"/>
       <c r="I206" s="9"/>
       <c r="J206" s="6"/>
-      <c r="K206" s="30"/>
-    </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K206" s="4"/>
+      <c r="L206" s="9"/>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A207" s="2"/>
       <c r="B207" s="7"/>
       <c r="C207" s="10"/>
@@ -6084,9 +6169,10 @@
       <c r="H207" s="10"/>
       <c r="I207" s="9"/>
       <c r="J207" s="6"/>
-      <c r="K207" s="30"/>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K207" s="4"/>
+      <c r="L207" s="9"/>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A208" s="2"/>
       <c r="B208" s="7"/>
       <c r="C208" s="10"/>
@@ -6097,9 +6183,10 @@
       <c r="H208" s="10"/>
       <c r="I208" s="9"/>
       <c r="J208" s="6"/>
-      <c r="K208" s="30"/>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K208" s="4"/>
+      <c r="L208" s="9"/>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A209" s="2"/>
       <c r="B209" s="7"/>
       <c r="C209" s="10"/>
@@ -6110,9 +6197,10 @@
       <c r="H209" s="10"/>
       <c r="I209" s="9"/>
       <c r="J209" s="6"/>
-      <c r="K209" s="30"/>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K209" s="4"/>
+      <c r="L209" s="9"/>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A210" s="2"/>
       <c r="B210" s="7"/>
       <c r="C210" s="10"/>
@@ -6123,9 +6211,10 @@
       <c r="H210" s="10"/>
       <c r="I210" s="9"/>
       <c r="J210" s="6"/>
-      <c r="K210" s="30"/>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K210" s="4"/>
+      <c r="L210" s="9"/>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A211" s="2"/>
       <c r="B211" s="7"/>
       <c r="C211" s="10"/>
@@ -6136,9 +6225,10 @@
       <c r="H211" s="10"/>
       <c r="I211" s="9"/>
       <c r="J211" s="6"/>
-      <c r="K211" s="30"/>
-    </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K211" s="4"/>
+      <c r="L211" s="9"/>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A212" s="2"/>
       <c r="B212" s="7"/>
       <c r="C212" s="10"/>
@@ -6149,9 +6239,10 @@
       <c r="H212" s="10"/>
       <c r="I212" s="9"/>
       <c r="J212" s="6"/>
-      <c r="K212" s="30"/>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K212" s="4"/>
+      <c r="L212" s="9"/>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A213" s="2"/>
       <c r="B213" s="7"/>
       <c r="C213" s="10"/>
@@ -6162,9 +6253,10 @@
       <c r="H213" s="10"/>
       <c r="I213" s="9"/>
       <c r="J213" s="6"/>
-      <c r="K213" s="30"/>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K213" s="4"/>
+      <c r="L213" s="9"/>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A214" s="2"/>
       <c r="B214" s="7"/>
       <c r="C214" s="10"/>
@@ -6175,9 +6267,10 @@
       <c r="H214" s="10"/>
       <c r="I214" s="9"/>
       <c r="J214" s="6"/>
-      <c r="K214" s="30"/>
-    </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K214" s="4"/>
+      <c r="L214" s="9"/>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A215" s="2"/>
       <c r="B215" s="7"/>
       <c r="C215" s="10"/>
@@ -6188,9 +6281,10 @@
       <c r="H215" s="10"/>
       <c r="I215" s="9"/>
       <c r="J215" s="6"/>
-      <c r="K215" s="30"/>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K215" s="4"/>
+      <c r="L215" s="9"/>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A216" s="2"/>
       <c r="B216" s="7"/>
       <c r="C216" s="10"/>
@@ -6201,9 +6295,10 @@
       <c r="H216" s="10"/>
       <c r="I216" s="9"/>
       <c r="J216" s="6"/>
-      <c r="K216" s="30"/>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K216" s="4"/>
+      <c r="L216" s="9"/>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A217" s="2"/>
       <c r="B217" s="7"/>
       <c r="C217" s="10"/>
@@ -6214,9 +6309,10 @@
       <c r="H217" s="10"/>
       <c r="I217" s="9"/>
       <c r="J217" s="6"/>
-      <c r="K217" s="30"/>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K217" s="4"/>
+      <c r="L217" s="9"/>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A218" s="2"/>
       <c r="B218" s="7"/>
       <c r="C218" s="10"/>
@@ -6227,9 +6323,10 @@
       <c r="H218" s="10"/>
       <c r="I218" s="9"/>
       <c r="J218" s="6"/>
-      <c r="K218" s="30"/>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K218" s="4"/>
+      <c r="L218" s="9"/>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A219" s="2"/>
       <c r="B219" s="7"/>
       <c r="C219" s="10"/>
@@ -6240,9 +6337,10 @@
       <c r="H219" s="10"/>
       <c r="I219" s="9"/>
       <c r="J219" s="6"/>
-      <c r="K219" s="30"/>
-    </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K219" s="4"/>
+      <c r="L219" s="9"/>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A220" s="2"/>
       <c r="B220" s="7"/>
       <c r="C220" s="10"/>
@@ -6253,9 +6351,10 @@
       <c r="H220" s="10"/>
       <c r="I220" s="9"/>
       <c r="J220" s="6"/>
-      <c r="K220" s="30"/>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K220" s="4"/>
+      <c r="L220" s="9"/>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A221" s="2"/>
       <c r="B221" s="7"/>
       <c r="C221" s="10"/>
@@ -6266,9 +6365,10 @@
       <c r="H221" s="10"/>
       <c r="I221" s="9"/>
       <c r="J221" s="6"/>
-      <c r="K221" s="30"/>
-    </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K221" s="4"/>
+      <c r="L221" s="9"/>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A222" s="2"/>
       <c r="B222" s="7"/>
       <c r="C222" s="10"/>
@@ -6279,9 +6379,10 @@
       <c r="H222" s="10"/>
       <c r="I222" s="9"/>
       <c r="J222" s="6"/>
-      <c r="K222" s="30"/>
-    </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K222" s="4"/>
+      <c r="L222" s="9"/>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A223" s="2"/>
       <c r="B223" s="7"/>
       <c r="C223" s="10"/>
@@ -6292,9 +6393,10 @@
       <c r="H223" s="10"/>
       <c r="I223" s="9"/>
       <c r="J223" s="6"/>
-      <c r="K223" s="30"/>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K223" s="4"/>
+      <c r="L223" s="9"/>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A224" s="2"/>
       <c r="B224" s="7"/>
       <c r="C224" s="10"/>
@@ -6305,9 +6407,10 @@
       <c r="H224" s="10"/>
       <c r="I224" s="9"/>
       <c r="J224" s="6"/>
-      <c r="K224" s="30"/>
-    </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K224" s="4"/>
+      <c r="L224" s="9"/>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A225" s="2"/>
       <c r="B225" s="7"/>
       <c r="C225" s="10"/>
@@ -6318,9 +6421,10 @@
       <c r="H225" s="10"/>
       <c r="I225" s="9"/>
       <c r="J225" s="6"/>
-      <c r="K225" s="30"/>
-    </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K225" s="4"/>
+      <c r="L225" s="9"/>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A226" s="2"/>
       <c r="B226" s="7"/>
       <c r="C226" s="10"/>
@@ -6331,9 +6435,10 @@
       <c r="H226" s="10"/>
       <c r="I226" s="9"/>
       <c r="J226" s="6"/>
-      <c r="K226" s="30"/>
-    </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K226" s="4"/>
+      <c r="L226" s="9"/>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A227" s="2"/>
       <c r="B227" s="7"/>
       <c r="C227" s="10"/>
@@ -6344,9 +6449,10 @@
       <c r="H227" s="10"/>
       <c r="I227" s="9"/>
       <c r="J227" s="6"/>
-      <c r="K227" s="30"/>
-    </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K227" s="4"/>
+      <c r="L227" s="9"/>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A228" s="2"/>
       <c r="B228" s="7"/>
       <c r="C228" s="10"/>
@@ -6357,9 +6463,10 @@
       <c r="H228" s="10"/>
       <c r="I228" s="9"/>
       <c r="J228" s="6"/>
-      <c r="K228" s="30"/>
-    </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K228" s="4"/>
+      <c r="L228" s="9"/>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A229" s="2"/>
       <c r="B229" s="7"/>
       <c r="C229" s="10"/>
@@ -6370,9 +6477,10 @@
       <c r="H229" s="10"/>
       <c r="I229" s="9"/>
       <c r="J229" s="6"/>
-      <c r="K229" s="30"/>
-    </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K229" s="4"/>
+      <c r="L229" s="9"/>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A230" s="2"/>
       <c r="B230" s="7"/>
       <c r="C230" s="10"/>
@@ -6383,9 +6491,10 @@
       <c r="H230" s="10"/>
       <c r="I230" s="9"/>
       <c r="J230" s="6"/>
-      <c r="K230" s="30"/>
-    </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K230" s="4"/>
+      <c r="L230" s="9"/>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A231" s="2"/>
       <c r="B231" s="7"/>
       <c r="C231" s="10"/>
@@ -6396,9 +6505,10 @@
       <c r="H231" s="10"/>
       <c r="I231" s="9"/>
       <c r="J231" s="6"/>
-      <c r="K231" s="30"/>
-    </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K231" s="4"/>
+      <c r="L231" s="9"/>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A232" s="2"/>
       <c r="B232" s="7"/>
       <c r="C232" s="10"/>
@@ -6409,9 +6519,10 @@
       <c r="H232" s="10"/>
       <c r="I232" s="9"/>
       <c r="J232" s="6"/>
-      <c r="K232" s="30"/>
-    </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K232" s="4"/>
+      <c r="L232" s="9"/>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A233" s="2"/>
       <c r="B233" s="7"/>
       <c r="C233" s="10"/>
@@ -6422,9 +6533,10 @@
       <c r="H233" s="10"/>
       <c r="I233" s="9"/>
       <c r="J233" s="6"/>
-      <c r="K233" s="30"/>
-    </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K233" s="4"/>
+      <c r="L233" s="9"/>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A234" s="2"/>
       <c r="B234" s="7"/>
       <c r="C234" s="10"/>
@@ -6435,9 +6547,10 @@
       <c r="H234" s="10"/>
       <c r="I234" s="9"/>
       <c r="J234" s="6"/>
-      <c r="K234" s="30"/>
-    </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K234" s="4"/>
+      <c r="L234" s="9"/>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A235" s="2"/>
       <c r="B235" s="7"/>
       <c r="C235" s="10"/>
@@ -6448,9 +6561,10 @@
       <c r="H235" s="10"/>
       <c r="I235" s="9"/>
       <c r="J235" s="6"/>
-      <c r="K235" s="30"/>
-    </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K235" s="4"/>
+      <c r="L235" s="9"/>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A236" s="2"/>
       <c r="B236" s="7"/>
       <c r="C236" s="10"/>
@@ -6461,9 +6575,10 @@
       <c r="H236" s="10"/>
       <c r="I236" s="9"/>
       <c r="J236" s="6"/>
-      <c r="K236" s="30"/>
-    </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K236" s="4"/>
+      <c r="L236" s="9"/>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A237" s="2"/>
       <c r="B237" s="7"/>
       <c r="C237" s="10"/>
@@ -6474,9 +6589,10 @@
       <c r="H237" s="10"/>
       <c r="I237" s="9"/>
       <c r="J237" s="6"/>
-      <c r="K237" s="30"/>
-    </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K237" s="4"/>
+      <c r="L237" s="9"/>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A238" s="2"/>
       <c r="B238" s="7"/>
       <c r="C238" s="10"/>
@@ -6487,9 +6603,10 @@
       <c r="H238" s="10"/>
       <c r="I238" s="9"/>
       <c r="J238" s="6"/>
-      <c r="K238" s="30"/>
-    </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K238" s="4"/>
+      <c r="L238" s="9"/>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A239" s="2"/>
       <c r="B239" s="7"/>
       <c r="C239" s="10"/>
@@ -6500,9 +6617,10 @@
       <c r="H239" s="10"/>
       <c r="I239" s="9"/>
       <c r="J239" s="6"/>
-      <c r="K239" s="30"/>
-    </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K239" s="4"/>
+      <c r="L239" s="9"/>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A240" s="2"/>
       <c r="B240" s="7"/>
       <c r="C240" s="10"/>
@@ -6513,9 +6631,10 @@
       <c r="H240" s="10"/>
       <c r="I240" s="9"/>
       <c r="J240" s="6"/>
-      <c r="K240" s="30"/>
-    </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K240" s="4"/>
+      <c r="L240" s="9"/>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A241" s="2"/>
       <c r="B241" s="7"/>
       <c r="C241" s="10"/>
@@ -6526,9 +6645,10 @@
       <c r="H241" s="10"/>
       <c r="I241" s="9"/>
       <c r="J241" s="6"/>
-      <c r="K241" s="30"/>
-    </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K241" s="4"/>
+      <c r="L241" s="9"/>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A242" s="2"/>
       <c r="B242" s="7"/>
       <c r="C242" s="10"/>
@@ -6539,9 +6659,10 @@
       <c r="H242" s="10"/>
       <c r="I242" s="9"/>
       <c r="J242" s="6"/>
-      <c r="K242" s="30"/>
-    </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K242" s="4"/>
+      <c r="L242" s="9"/>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A243" s="2"/>
       <c r="B243" s="7"/>
       <c r="C243" s="10"/>
@@ -6552,9 +6673,10 @@
       <c r="H243" s="10"/>
       <c r="I243" s="9"/>
       <c r="J243" s="6"/>
-      <c r="K243" s="30"/>
-    </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K243" s="4"/>
+      <c r="L243" s="9"/>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A244" s="2"/>
       <c r="B244" s="7"/>
       <c r="C244" s="10"/>
@@ -6565,9 +6687,10 @@
       <c r="H244" s="10"/>
       <c r="I244" s="9"/>
       <c r="J244" s="6"/>
-      <c r="K244" s="30"/>
-    </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K244" s="4"/>
+      <c r="L244" s="9"/>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A245" s="2"/>
       <c r="B245" s="7"/>
       <c r="C245" s="10"/>
@@ -6578,9 +6701,10 @@
       <c r="H245" s="10"/>
       <c r="I245" s="9"/>
       <c r="J245" s="6"/>
-      <c r="K245" s="30"/>
-    </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K245" s="4"/>
+      <c r="L245" s="9"/>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A246" s="2"/>
       <c r="B246" s="7"/>
       <c r="C246" s="10"/>
@@ -6591,9 +6715,10 @@
       <c r="H246" s="10"/>
       <c r="I246" s="9"/>
       <c r="J246" s="6"/>
-      <c r="K246" s="30"/>
-    </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K246" s="4"/>
+      <c r="L246" s="9"/>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A247" s="2"/>
       <c r="B247" s="7"/>
       <c r="C247" s="10"/>
@@ -6604,9 +6729,10 @@
       <c r="H247" s="10"/>
       <c r="I247" s="9"/>
       <c r="J247" s="6"/>
-      <c r="K247" s="30"/>
-    </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K247" s="4"/>
+      <c r="L247" s="9"/>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A248" s="2"/>
       <c r="B248" s="7"/>
       <c r="C248" s="10"/>
@@ -6617,9 +6743,10 @@
       <c r="H248" s="10"/>
       <c r="I248" s="9"/>
       <c r="J248" s="6"/>
-      <c r="K248" s="30"/>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K248" s="4"/>
+      <c r="L248" s="9"/>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A249" s="2"/>
       <c r="B249" s="7"/>
       <c r="C249" s="10"/>
@@ -6630,9 +6757,10 @@
       <c r="H249" s="10"/>
       <c r="I249" s="9"/>
       <c r="J249" s="6"/>
-      <c r="K249" s="30"/>
-    </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K249" s="4"/>
+      <c r="L249" s="9"/>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A250" s="2"/>
       <c r="B250" s="7"/>
       <c r="C250" s="10"/>
@@ -6643,9 +6771,10 @@
       <c r="H250" s="10"/>
       <c r="I250" s="9"/>
       <c r="J250" s="6"/>
-      <c r="K250" s="30"/>
-    </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K250" s="4"/>
+      <c r="L250" s="9"/>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A251" s="2"/>
       <c r="B251" s="7"/>
       <c r="C251" s="10"/>
@@ -6656,9 +6785,10 @@
       <c r="H251" s="10"/>
       <c r="I251" s="9"/>
       <c r="J251" s="6"/>
-      <c r="K251" s="30"/>
-    </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K251" s="4"/>
+      <c r="L251" s="9"/>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A252" s="2"/>
       <c r="B252" s="7"/>
       <c r="C252" s="10"/>
@@ -6669,9 +6799,10 @@
       <c r="H252" s="10"/>
       <c r="I252" s="9"/>
       <c r="J252" s="6"/>
-      <c r="K252" s="30"/>
-    </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K252" s="4"/>
+      <c r="L252" s="9"/>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A253" s="2"/>
       <c r="B253" s="7"/>
       <c r="C253" s="10"/>
@@ -6682,9 +6813,10 @@
       <c r="H253" s="10"/>
       <c r="I253" s="9"/>
       <c r="J253" s="6"/>
-      <c r="K253" s="30"/>
-    </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K253" s="4"/>
+      <c r="L253" s="9"/>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A254" s="2"/>
       <c r="B254" s="7"/>
       <c r="C254" s="10"/>
@@ -6695,9 +6827,10 @@
       <c r="H254" s="10"/>
       <c r="I254" s="9"/>
       <c r="J254" s="6"/>
-      <c r="K254" s="30"/>
-    </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K254" s="4"/>
+      <c r="L254" s="9"/>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A255" s="2"/>
       <c r="B255" s="7"/>
       <c r="C255" s="10"/>
@@ -6708,9 +6841,10 @@
       <c r="H255" s="10"/>
       <c r="I255" s="9"/>
       <c r="J255" s="6"/>
-      <c r="K255" s="30"/>
-    </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K255" s="4"/>
+      <c r="L255" s="9"/>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A256" s="2"/>
       <c r="B256" s="7"/>
       <c r="C256" s="10"/>
@@ -6721,9 +6855,10 @@
       <c r="H256" s="10"/>
       <c r="I256" s="9"/>
       <c r="J256" s="6"/>
-      <c r="K256" s="30"/>
-    </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K256" s="4"/>
+      <c r="L256" s="9"/>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A257" s="2"/>
       <c r="B257" s="7"/>
       <c r="C257" s="10"/>
@@ -6734,9 +6869,10 @@
       <c r="H257" s="10"/>
       <c r="I257" s="9"/>
       <c r="J257" s="6"/>
-      <c r="K257" s="30"/>
-    </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K257" s="4"/>
+      <c r="L257" s="9"/>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A258" s="2"/>
       <c r="B258" s="7"/>
       <c r="C258" s="10"/>
@@ -6747,9 +6883,10 @@
       <c r="H258" s="10"/>
       <c r="I258" s="9"/>
       <c r="J258" s="6"/>
-      <c r="K258" s="30"/>
-    </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K258" s="4"/>
+      <c r="L258" s="9"/>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A259" s="2"/>
       <c r="B259" s="7"/>
       <c r="C259" s="10"/>
@@ -6760,9 +6897,10 @@
       <c r="H259" s="10"/>
       <c r="I259" s="9"/>
       <c r="J259" s="6"/>
-      <c r="K259" s="30"/>
-    </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K259" s="4"/>
+      <c r="L259" s="9"/>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A260" s="2"/>
       <c r="B260" s="7"/>
       <c r="C260" s="10"/>
@@ -6773,9 +6911,10 @@
       <c r="H260" s="10"/>
       <c r="I260" s="9"/>
       <c r="J260" s="6"/>
-      <c r="K260" s="30"/>
-    </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K260" s="4"/>
+      <c r="L260" s="9"/>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A261" s="2"/>
       <c r="B261" s="7"/>
       <c r="C261" s="10"/>
@@ -6786,9 +6925,10 @@
       <c r="H261" s="10"/>
       <c r="I261" s="9"/>
       <c r="J261" s="6"/>
-      <c r="K261" s="30"/>
-    </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K261" s="4"/>
+      <c r="L261" s="9"/>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A262" s="2"/>
       <c r="B262" s="7"/>
       <c r="C262" s="10"/>
@@ -6799,9 +6939,10 @@
       <c r="H262" s="10"/>
       <c r="I262" s="9"/>
       <c r="J262" s="6"/>
-      <c r="K262" s="30"/>
-    </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K262" s="4"/>
+      <c r="L262" s="9"/>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A263" s="2"/>
       <c r="B263" s="7"/>
       <c r="C263" s="10"/>
@@ -6812,9 +6953,10 @@
       <c r="H263" s="10"/>
       <c r="I263" s="9"/>
       <c r="J263" s="6"/>
-      <c r="K263" s="30"/>
-    </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K263" s="4"/>
+      <c r="L263" s="9"/>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A264" s="2"/>
       <c r="B264" s="7"/>
       <c r="C264" s="10"/>
@@ -6825,9 +6967,10 @@
       <c r="H264" s="10"/>
       <c r="I264" s="9"/>
       <c r="J264" s="6"/>
-      <c r="K264" s="30"/>
-    </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K264" s="4"/>
+      <c r="L264" s="9"/>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A265" s="2"/>
       <c r="B265" s="7"/>
       <c r="C265" s="10"/>
@@ -6838,9 +6981,10 @@
       <c r="H265" s="10"/>
       <c r="I265" s="9"/>
       <c r="J265" s="6"/>
-      <c r="K265" s="30"/>
-    </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K265" s="4"/>
+      <c r="L265" s="9"/>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A266" s="2"/>
       <c r="B266" s="7"/>
       <c r="C266" s="10"/>
@@ -6851,9 +6995,10 @@
       <c r="H266" s="10"/>
       <c r="I266" s="9"/>
       <c r="J266" s="6"/>
-      <c r="K266" s="30"/>
-    </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K266" s="4"/>
+      <c r="L266" s="9"/>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A267" s="2"/>
       <c r="B267" s="7"/>
       <c r="C267" s="10"/>
@@ -6864,9 +7009,10 @@
       <c r="H267" s="10"/>
       <c r="I267" s="9"/>
       <c r="J267" s="6"/>
-      <c r="K267" s="30"/>
-    </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K267" s="4"/>
+      <c r="L267" s="9"/>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A268" s="2"/>
       <c r="B268" s="7"/>
       <c r="C268" s="10"/>
@@ -6877,9 +7023,10 @@
       <c r="H268" s="10"/>
       <c r="I268" s="9"/>
       <c r="J268" s="6"/>
-      <c r="K268" s="30"/>
-    </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K268" s="4"/>
+      <c r="L268" s="9"/>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A269" s="2"/>
       <c r="B269" s="7"/>
       <c r="C269" s="10"/>
@@ -6890,9 +7037,10 @@
       <c r="H269" s="10"/>
       <c r="I269" s="9"/>
       <c r="J269" s="6"/>
-      <c r="K269" s="30"/>
-    </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K269" s="4"/>
+      <c r="L269" s="9"/>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A270" s="2"/>
       <c r="B270" s="7"/>
       <c r="C270" s="10"/>
@@ -6903,9 +7051,10 @@
       <c r="H270" s="10"/>
       <c r="I270" s="9"/>
       <c r="J270" s="6"/>
-      <c r="K270" s="30"/>
-    </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K270" s="4"/>
+      <c r="L270" s="9"/>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A271" s="2"/>
       <c r="B271" s="7"/>
       <c r="C271" s="10"/>
@@ -6916,9 +7065,10 @@
       <c r="H271" s="10"/>
       <c r="I271" s="9"/>
       <c r="J271" s="6"/>
-      <c r="K271" s="30"/>
-    </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K271" s="4"/>
+      <c r="L271" s="9"/>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A272" s="2"/>
       <c r="B272" s="7"/>
       <c r="C272" s="10"/>
@@ -6929,9 +7079,10 @@
       <c r="H272" s="10"/>
       <c r="I272" s="9"/>
       <c r="J272" s="6"/>
-      <c r="K272" s="30"/>
-    </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K272" s="4"/>
+      <c r="L272" s="9"/>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A273" s="2"/>
       <c r="B273" s="7"/>
       <c r="C273" s="10"/>
@@ -6942,9 +7093,10 @@
       <c r="H273" s="10"/>
       <c r="I273" s="9"/>
       <c r="J273" s="6"/>
-      <c r="K273" s="30"/>
-    </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K273" s="4"/>
+      <c r="L273" s="9"/>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A274" s="2"/>
       <c r="B274" s="7"/>
       <c r="C274" s="10"/>
@@ -6955,9 +7107,10 @@
       <c r="H274" s="10"/>
       <c r="I274" s="9"/>
       <c r="J274" s="6"/>
-      <c r="K274" s="30"/>
-    </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K274" s="4"/>
+      <c r="L274" s="9"/>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A275" s="2"/>
       <c r="B275" s="7"/>
       <c r="C275" s="10"/>
@@ -6968,9 +7121,10 @@
       <c r="H275" s="10"/>
       <c r="I275" s="9"/>
       <c r="J275" s="6"/>
-      <c r="K275" s="30"/>
-    </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K275" s="4"/>
+      <c r="L275" s="9"/>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A276" s="2"/>
       <c r="B276" s="7"/>
       <c r="C276" s="10"/>
@@ -6981,9 +7135,10 @@
       <c r="H276" s="10"/>
       <c r="I276" s="9"/>
       <c r="J276" s="6"/>
-      <c r="K276" s="30"/>
-    </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K276" s="4"/>
+      <c r="L276" s="9"/>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A277" s="2"/>
       <c r="B277" s="7"/>
       <c r="C277" s="10"/>
@@ -6994,9 +7149,10 @@
       <c r="H277" s="10"/>
       <c r="I277" s="9"/>
       <c r="J277" s="6"/>
-      <c r="K277" s="30"/>
-    </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K277" s="4"/>
+      <c r="L277" s="9"/>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A278" s="2"/>
       <c r="B278" s="7"/>
       <c r="C278" s="10"/>
@@ -7007,9 +7163,10 @@
       <c r="H278" s="10"/>
       <c r="I278" s="9"/>
       <c r="J278" s="6"/>
-      <c r="K278" s="30"/>
-    </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K278" s="4"/>
+      <c r="L278" s="9"/>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A279" s="2"/>
       <c r="B279" s="7"/>
       <c r="C279" s="10"/>
@@ -7020,9 +7177,10 @@
       <c r="H279" s="10"/>
       <c r="I279" s="9"/>
       <c r="J279" s="6"/>
-      <c r="K279" s="30"/>
-    </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K279" s="4"/>
+      <c r="L279" s="9"/>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A280" s="2"/>
       <c r="B280" s="7"/>
       <c r="C280" s="10"/>
@@ -7033,9 +7191,10 @@
       <c r="H280" s="10"/>
       <c r="I280" s="9"/>
       <c r="J280" s="6"/>
-      <c r="K280" s="30"/>
-    </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K280" s="4"/>
+      <c r="L280" s="9"/>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A281" s="2"/>
       <c r="B281" s="7"/>
       <c r="C281" s="10"/>
@@ -7046,9 +7205,10 @@
       <c r="H281" s="10"/>
       <c r="I281" s="9"/>
       <c r="J281" s="6"/>
-      <c r="K281" s="30"/>
-    </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K281" s="4"/>
+      <c r="L281" s="9"/>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A282" s="2"/>
       <c r="B282" s="7"/>
       <c r="C282" s="10"/>
@@ -7059,9 +7219,10 @@
       <c r="H282" s="10"/>
       <c r="I282" s="9"/>
       <c r="J282" s="6"/>
-      <c r="K282" s="30"/>
-    </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K282" s="4"/>
+      <c r="L282" s="9"/>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A283" s="2"/>
       <c r="B283" s="7"/>
       <c r="C283" s="10"/>
@@ -7072,9 +7233,10 @@
       <c r="H283" s="10"/>
       <c r="I283" s="9"/>
       <c r="J283" s="6"/>
-      <c r="K283" s="30"/>
-    </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K283" s="4"/>
+      <c r="L283" s="9"/>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A284" s="2"/>
       <c r="B284" s="7"/>
       <c r="C284" s="10"/>
@@ -7085,9 +7247,10 @@
       <c r="H284" s="10"/>
       <c r="I284" s="9"/>
       <c r="J284" s="6"/>
-      <c r="K284" s="30"/>
-    </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K284" s="4"/>
+      <c r="L284" s="9"/>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A285" s="2"/>
       <c r="B285" s="7"/>
       <c r="C285" s="10"/>
@@ -7098,9 +7261,10 @@
       <c r="H285" s="10"/>
       <c r="I285" s="9"/>
       <c r="J285" s="6"/>
-      <c r="K285" s="30"/>
-    </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K285" s="4"/>
+      <c r="L285" s="9"/>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A286" s="2"/>
       <c r="B286" s="7"/>
       <c r="C286" s="10"/>
@@ -7111,9 +7275,10 @@
       <c r="H286" s="10"/>
       <c r="I286" s="9"/>
       <c r="J286" s="6"/>
-      <c r="K286" s="30"/>
-    </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K286" s="4"/>
+      <c r="L286" s="9"/>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A287" s="2"/>
       <c r="B287" s="7"/>
       <c r="C287" s="10"/>
@@ -7124,9 +7289,10 @@
       <c r="H287" s="10"/>
       <c r="I287" s="9"/>
       <c r="J287" s="6"/>
-      <c r="K287" s="30"/>
-    </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K287" s="4"/>
+      <c r="L287" s="9"/>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A288" s="2"/>
       <c r="B288" s="7"/>
       <c r="C288" s="10"/>
@@ -7137,9 +7303,10 @@
       <c r="H288" s="10"/>
       <c r="I288" s="9"/>
       <c r="J288" s="6"/>
-      <c r="K288" s="30"/>
-    </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K288" s="4"/>
+      <c r="L288" s="9"/>
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A289" s="2"/>
       <c r="B289" s="7"/>
       <c r="C289" s="10"/>
@@ -7150,9 +7317,10 @@
       <c r="H289" s="10"/>
       <c r="I289" s="9"/>
       <c r="J289" s="6"/>
-      <c r="K289" s="30"/>
-    </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K289" s="4"/>
+      <c r="L289" s="9"/>
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A290" s="2"/>
       <c r="B290" s="7"/>
       <c r="C290" s="10"/>
@@ -7163,9 +7331,10 @@
       <c r="H290" s="10"/>
       <c r="I290" s="9"/>
       <c r="J290" s="6"/>
-      <c r="K290" s="30"/>
-    </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K290" s="4"/>
+      <c r="L290" s="9"/>
+    </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A291" s="2"/>
       <c r="B291" s="7"/>
       <c r="C291" s="10"/>
@@ -7176,9 +7345,10 @@
       <c r="H291" s="10"/>
       <c r="I291" s="9"/>
       <c r="J291" s="6"/>
-      <c r="K291" s="30"/>
-    </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K291" s="4"/>
+      <c r="L291" s="9"/>
+    </row>
+    <row r="292" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A292" s="2"/>
       <c r="B292" s="7"/>
       <c r="C292" s="10"/>
@@ -7189,9 +7359,10 @@
       <c r="H292" s="10"/>
       <c r="I292" s="9"/>
       <c r="J292" s="6"/>
-      <c r="K292" s="30"/>
-    </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K292" s="4"/>
+      <c r="L292" s="9"/>
+    </row>
+    <row r="293" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A293" s="2"/>
       <c r="B293" s="7"/>
       <c r="C293" s="10"/>
@@ -7202,9 +7373,10 @@
       <c r="H293" s="10"/>
       <c r="I293" s="9"/>
       <c r="J293" s="6"/>
-      <c r="K293" s="30"/>
-    </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K293" s="4"/>
+      <c r="L293" s="9"/>
+    </row>
+    <row r="294" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A294" s="2"/>
       <c r="B294" s="7"/>
       <c r="C294" s="10"/>
@@ -7215,9 +7387,10 @@
       <c r="H294" s="10"/>
       <c r="I294" s="9"/>
       <c r="J294" s="6"/>
-      <c r="K294" s="30"/>
-    </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K294" s="4"/>
+      <c r="L294" s="9"/>
+    </row>
+    <row r="295" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A295" s="2"/>
       <c r="B295" s="7"/>
       <c r="C295" s="10"/>
@@ -7228,9 +7401,10 @@
       <c r="H295" s="10"/>
       <c r="I295" s="9"/>
       <c r="J295" s="6"/>
-      <c r="K295" s="30"/>
-    </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K295" s="4"/>
+      <c r="L295" s="9"/>
+    </row>
+    <row r="296" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A296" s="2"/>
       <c r="B296" s="7"/>
       <c r="C296" s="10"/>
@@ -7241,9 +7415,10 @@
       <c r="H296" s="10"/>
       <c r="I296" s="9"/>
       <c r="J296" s="6"/>
-      <c r="K296" s="30"/>
-    </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K296" s="4"/>
+      <c r="L296" s="9"/>
+    </row>
+    <row r="297" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A297" s="2"/>
       <c r="B297" s="7"/>
       <c r="C297" s="10"/>
@@ -7254,9 +7429,10 @@
       <c r="H297" s="10"/>
       <c r="I297" s="9"/>
       <c r="J297" s="6"/>
-      <c r="K297" s="30"/>
-    </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K297" s="4"/>
+      <c r="L297" s="9"/>
+    </row>
+    <row r="298" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A298" s="2"/>
       <c r="B298" s="7"/>
       <c r="C298" s="10"/>
@@ -7267,9 +7443,10 @@
       <c r="H298" s="10"/>
       <c r="I298" s="9"/>
       <c r="J298" s="6"/>
-      <c r="K298" s="30"/>
-    </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K298" s="4"/>
+      <c r="L298" s="9"/>
+    </row>
+    <row r="299" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A299" s="2"/>
       <c r="B299" s="7"/>
       <c r="C299" s="10"/>
@@ -7280,9 +7457,10 @@
       <c r="H299" s="10"/>
       <c r="I299" s="9"/>
       <c r="J299" s="6"/>
-      <c r="K299" s="30"/>
-    </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K299" s="4"/>
+      <c r="L299" s="9"/>
+    </row>
+    <row r="300" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A300" s="2"/>
       <c r="B300" s="7"/>
       <c r="C300" s="10"/>
@@ -7293,9 +7471,10 @@
       <c r="H300" s="10"/>
       <c r="I300" s="9"/>
       <c r="J300" s="6"/>
-      <c r="K300" s="30"/>
-    </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K300" s="4"/>
+      <c r="L300" s="9"/>
+    </row>
+    <row r="301" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A301" s="2"/>
       <c r="B301" s="7"/>
       <c r="C301" s="10"/>
@@ -7306,9 +7485,10 @@
       <c r="H301" s="10"/>
       <c r="I301" s="9"/>
       <c r="J301" s="6"/>
-      <c r="K301" s="30"/>
-    </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K301" s="4"/>
+      <c r="L301" s="9"/>
+    </row>
+    <row r="302" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A302" s="2"/>
       <c r="B302" s="7"/>
       <c r="C302" s="10"/>
@@ -7319,9 +7499,10 @@
       <c r="H302" s="10"/>
       <c r="I302" s="9"/>
       <c r="J302" s="6"/>
-      <c r="K302" s="30"/>
-    </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K302" s="4"/>
+      <c r="L302" s="9"/>
+    </row>
+    <row r="303" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A303" s="2"/>
       <c r="B303" s="7"/>
       <c r="C303" s="10"/>
@@ -7332,9 +7513,10 @@
       <c r="H303" s="10"/>
       <c r="I303" s="9"/>
       <c r="J303" s="6"/>
-      <c r="K303" s="30"/>
-    </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K303" s="4"/>
+      <c r="L303" s="9"/>
+    </row>
+    <row r="304" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A304" s="2"/>
       <c r="B304" s="7"/>
       <c r="C304" s="10"/>
@@ -7345,9 +7527,10 @@
       <c r="H304" s="10"/>
       <c r="I304" s="9"/>
       <c r="J304" s="6"/>
-      <c r="K304" s="30"/>
-    </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K304" s="4"/>
+      <c r="L304" s="9"/>
+    </row>
+    <row r="305" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A305" s="2"/>
       <c r="B305" s="7"/>
       <c r="C305" s="10"/>
@@ -7358,9 +7541,10 @@
       <c r="H305" s="10"/>
       <c r="I305" s="9"/>
       <c r="J305" s="6"/>
-      <c r="K305" s="30"/>
-    </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K305" s="4"/>
+      <c r="L305" s="9"/>
+    </row>
+    <row r="306" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A306" s="2"/>
       <c r="B306" s="7"/>
       <c r="C306" s="10"/>
@@ -7371,253 +7555,13 @@
       <c r="H306" s="10"/>
       <c r="I306" s="9"/>
       <c r="J306" s="6"/>
-      <c r="K306" s="30"/>
+      <c r="K306" s="4"/>
+      <c r="L306" s="9"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K46" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="L27:L29 L31:L32 L11 L7 L1:L5 L23 L34 L36:L1048576 L13:L21">
-    <cfRule type="cellIs" dxfId="77" priority="64" operator="equal">
-      <formula>"是"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="65" operator="equal">
-      <formula>"否"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="66" operator="equal">
-      <formula>"是"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M2 M4 M27:M29 M7:M9 M31:M1048576 M11:M23">
-    <cfRule type="cellIs" dxfId="74" priority="61" operator="equal">
-      <formula>"是"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="62" operator="equal">
-      <formula>"否"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="63" operator="equal">
-      <formula>"是"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3">
-    <cfRule type="cellIs" dxfId="71" priority="58" operator="equal">
-      <formula>"是"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="59" operator="equal">
-      <formula>"否"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="60" operator="equal">
-      <formula>"是"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L25">
-    <cfRule type="cellIs" dxfId="68" priority="55" operator="equal">
-      <formula>"是"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="56" operator="equal">
-      <formula>"否"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="57" operator="equal">
-      <formula>"是"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M25">
-    <cfRule type="cellIs" dxfId="65" priority="52" operator="equal">
-      <formula>"是"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="53" operator="equal">
-      <formula>"否"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="54" operator="equal">
-      <formula>"是"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L26">
-    <cfRule type="cellIs" dxfId="62" priority="49" operator="equal">
-      <formula>"是"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="50" operator="equal">
-      <formula>"否"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="51" operator="equal">
-      <formula>"是"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M26">
-    <cfRule type="cellIs" dxfId="59" priority="46" operator="equal">
-      <formula>"是"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="47" operator="equal">
-      <formula>"否"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="48" operator="equal">
-      <formula>"是"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L30">
-    <cfRule type="cellIs" dxfId="56" priority="43" operator="equal">
-      <formula>"是"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="44" operator="equal">
-      <formula>"否"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="45" operator="equal">
-      <formula>"是"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M30">
-    <cfRule type="cellIs" dxfId="53" priority="40" operator="equal">
-      <formula>"是"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="41" operator="equal">
-      <formula>"否"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="42" operator="equal">
-      <formula>"是"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L24">
-    <cfRule type="cellIs" dxfId="50" priority="37" operator="equal">
-      <formula>"是"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="38" operator="equal">
-      <formula>"否"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="39" operator="equal">
-      <formula>"是"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M24">
-    <cfRule type="cellIs" dxfId="47" priority="34" operator="equal">
-      <formula>"是"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="35" operator="equal">
-      <formula>"否"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="36" operator="equal">
-      <formula>"是"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L10">
-    <cfRule type="cellIs" dxfId="44" priority="31" operator="equal">
-      <formula>"是"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="32" operator="equal">
-      <formula>"否"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="33" operator="equal">
-      <formula>"是"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M10">
-    <cfRule type="cellIs" dxfId="41" priority="28" operator="equal">
-      <formula>"是"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="29" operator="equal">
-      <formula>"否"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="30" operator="equal">
-      <formula>"是"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="38" priority="25" operator="equal">
-      <formula>"是"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="26" operator="equal">
-      <formula>"否"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="27" operator="equal">
-      <formula>"是"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M6">
-    <cfRule type="cellIs" dxfId="35" priority="22" operator="equal">
-      <formula>"是"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="23" operator="equal">
-      <formula>"否"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="24" operator="equal">
-      <formula>"是"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5">
-    <cfRule type="cellIs" dxfId="32" priority="19" operator="equal">
-      <formula>"是"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="20" operator="equal">
-      <formula>"否"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="21" operator="equal">
-      <formula>"是"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L8">
-    <cfRule type="cellIs" dxfId="29" priority="16" operator="equal">
-      <formula>"是"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="17" operator="equal">
-      <formula>"否"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="18" operator="equal">
-      <formula>"是"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L9">
-    <cfRule type="cellIs" dxfId="26" priority="13" operator="equal">
-      <formula>"是"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="14" operator="equal">
-      <formula>"否"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="15" operator="equal">
-      <formula>"是"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L22">
-    <cfRule type="cellIs" dxfId="23" priority="10" operator="equal">
-      <formula>"是"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="11" operator="equal">
-      <formula>"否"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="12" operator="equal">
-      <formula>"是"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L33">
-    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
-      <formula>"是"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="8" operator="equal">
-      <formula>"否"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="9" operator="equal">
-      <formula>"是"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L35">
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
-      <formula>"是"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
-      <formula>"否"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
-      <formula>"是"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
-      <formula>"是"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
-      <formula>"否"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
-      <formula>"是"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="4">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F306" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
@@ -7627,9 +7571,6 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"bug,enhancement,requirement,task,other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:M1048576" xr:uid="{26EBB85C-EDE8-4CCA-8261-B0F05C7B85B6}">
-      <formula1>"是,否"</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7637,17 +7578,33 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="83" operator="equal" id="{6F59092E-2137-4D0D-81E7-002AA48AD9B7}">
-            <xm:f>Sheet2!$A$4</xm:f>
+          <x14:cfRule type="cellIs" priority="40" operator="equal" id="{CDC96ED6-F829-4F74-8573-67B1344E6BC3}">
+            <xm:f>Sheet2!$A$1</xm:f>
             <x14:dxf>
+              <font>
+                <color rgb="FF006100"/>
+              </font>
               <fill>
                 <patternFill>
-                  <bgColor theme="0" tint="-0.24994659260841701"/>
+                  <bgColor rgb="FFC6EFCE"/>
                 </patternFill>
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="84" operator="equal" id="{E86A3B57-8A98-408B-A810-940F40F3AF10}">
+          <x14:cfRule type="cellIs" priority="39" operator="equal" id="{723DE15E-3E90-4C81-8689-DD0AE382F258}">
+            <xm:f>Sheet2!$A$2</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="38" operator="equal" id="{E86A3B57-8A98-408B-A810-940F40F3AF10}">
             <xm:f>Sheet2!$A$3</xm:f>
             <x14:dxf>
               <font>
@@ -7660,7 +7617,43 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="85" operator="equal" id="{723DE15E-3E90-4C81-8689-DD0AE382F258}">
+          <x14:cfRule type="cellIs" priority="37" operator="equal" id="{6F59092E-2137-4D0D-81E7-002AA48AD9B7}">
+            <xm:f>Sheet2!$A$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J1 J4:J49 J55:J1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="25" operator="equal" id="{DF8E6184-36A1-4414-B576-10640132D50A}">
+            <xm:f>Sheet2!$A$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="26" operator="equal" id="{9990BC9F-9011-4ECB-893F-2341D869D2ED}">
+            <xm:f>Sheet2!$A$3</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="27" operator="equal" id="{6325F00B-379A-47C9-A078-FAF2E1237D9A}">
             <xm:f>Sheet2!$A$2</xm:f>
             <x14:dxf>
               <font>
@@ -7673,59 +7666,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="86" operator="equal" id="{CDC96ED6-F829-4F74-8573-67B1344E6BC3}">
-            <xm:f>Sheet2!$A$1</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF006100"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFC6EFCE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J1 J4:J1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="71" operator="equal" id="{DF8E6184-36A1-4414-B576-10640132D50A}">
-            <xm:f>Sheet2!$A$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="72" operator="equal" id="{9990BC9F-9011-4ECB-893F-2341D869D2ED}">
-            <xm:f>Sheet2!$A$3</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="73" operator="equal" id="{6325F00B-379A-47C9-A078-FAF2E1237D9A}">
-            <xm:f>Sheet2!$A$2</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C6500"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFEB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="74" operator="equal" id="{938FCFA6-19FA-476F-8FC1-3E6156AE3EA8}">
+          <x14:cfRule type="cellIs" priority="28" operator="equal" id="{938FCFA6-19FA-476F-8FC1-3E6156AE3EA8}">
             <xm:f>Sheet2!$A$1</xm:f>
             <x14:dxf>
               <font>
@@ -7741,7 +7682,7 @@
           <xm:sqref>J2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="67" operator="equal" id="{5501B683-09EC-46D7-8DDD-A8D542095BED}">
+          <x14:cfRule type="cellIs" priority="21" operator="equal" id="{5501B683-09EC-46D7-8DDD-A8D542095BED}">
             <xm:f>Sheet2!$A$4</xm:f>
             <x14:dxf>
               <fill>
@@ -7751,7 +7692,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="68" operator="equal" id="{BE7201CD-3B69-4E5B-B233-57173C53BA17}">
+          <x14:cfRule type="cellIs" priority="22" operator="equal" id="{BE7201CD-3B69-4E5B-B233-57173C53BA17}">
             <xm:f>Sheet2!$A$3</xm:f>
             <x14:dxf>
               <font>
@@ -7764,7 +7705,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="69" operator="equal" id="{9A2F8CDE-25A8-4AA2-A451-02282FB84499}">
+          <x14:cfRule type="cellIs" priority="23" operator="equal" id="{9A2F8CDE-25A8-4AA2-A451-02282FB84499}">
             <xm:f>Sheet2!$A$2</xm:f>
             <x14:dxf>
               <font>
@@ -7777,7 +7718,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="70" operator="equal" id="{19089BDA-0BDB-498C-9A43-7880086556F5}">
+          <x14:cfRule type="cellIs" priority="24" operator="equal" id="{19089BDA-0BDB-498C-9A43-7880086556F5}">
             <xm:f>Sheet2!$A$1</xm:f>
             <x14:dxf>
               <font>
@@ -7791,6 +7732,266 @@
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>J3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="17" operator="equal" id="{AF33C56A-7D72-463C-B085-610A8520F545}">
+            <xm:f>Sheet2!$A$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="18" operator="equal" id="{E654E357-483D-42E3-848C-00D900BEA129}">
+            <xm:f>Sheet2!$A$3</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="19" operator="equal" id="{AEEAAFFD-4F55-4B82-80D5-089E2AAA2345}">
+            <xm:f>Sheet2!$A$2</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="20" operator="equal" id="{F67AEFF2-CDC7-47A2-BBE4-0BEC8DB67ABF}">
+            <xm:f>Sheet2!$A$1</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF006100"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFC6EFCE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J50</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="13" operator="equal" id="{AF2A794D-E0D1-4B6B-BE60-7D1BBBBAD2C6}">
+            <xm:f>Sheet2!$A$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="14" operator="equal" id="{EC72A2F7-E3F0-4AAC-B4F5-CF65F20B8E42}">
+            <xm:f>Sheet2!$A$3</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="15" operator="equal" id="{35D8116F-8C5C-4B1F-B32C-B6E7C1ACD910}">
+            <xm:f>Sheet2!$A$2</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="16" operator="equal" id="{26F3F87E-AF90-4436-AFD1-C64DBF725FC5}">
+            <xm:f>Sheet2!$A$1</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF006100"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFC6EFCE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J51</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{F633B2F5-6D65-4F95-A4ED-A808B7F27F00}">
+            <xm:f>Sheet2!$A$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="10" operator="equal" id="{664F51E5-7D73-4350-BE2C-9B156B0CE33B}">
+            <xm:f>Sheet2!$A$3</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="11" operator="equal" id="{0F29EDD1-57A7-4066-8AC0-F029A710E386}">
+            <xm:f>Sheet2!$A$2</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="12" operator="equal" id="{EEC58CAC-A015-41CF-8FFC-5118084B41BA}">
+            <xm:f>Sheet2!$A$1</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF006100"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFC6EFCE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J52</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{040A434D-B3CF-46F2-AF64-D486035AA3C7}">
+            <xm:f>Sheet2!$A$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{9F431FAA-9C26-4EC5-8C8E-D61FD88AE0D8}">
+            <xm:f>Sheet2!$A$3</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{0904B87D-EB63-4796-AC10-218156D4F8C8}">
+            <xm:f>Sheet2!$A$2</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="8" operator="equal" id="{04FB56A8-B7FD-4BFA-A6EE-86625C5AC36D}">
+            <xm:f>Sheet2!$A$1</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF006100"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFC6EFCE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J53</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{466D0C9C-CCCE-4A72-9BFA-F5136C83E28F}">
+            <xm:f>Sheet2!$A$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{36497185-F124-4056-B208-9487784BF2B5}">
+            <xm:f>Sheet2!$A$3</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{E87C6550-EA2B-4C91-90F0-605C6E31D7CB}">
+            <xm:f>Sheet2!$A$2</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{DC7B96F8-B35B-46E5-8F8A-182CECBB95BC}">
+            <xm:f>Sheet2!$A$1</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF006100"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFC6EFCE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J54</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -7810,22 +8011,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
